--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A753DBBD-56F4-4FCD-A665-070367E74E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425012C9-632C-4DD8-8D77-379840844544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -172,6 +172,330 @@
   </si>
   <si>
     <t>netSimWork01, Net simulator working</t>
+  </si>
+  <si>
+    <t>//GUIOperations:</t>
+  </si>
+  <si>
+    <t>GUIO_openProject001, Reading project file succcessful.</t>
+  </si>
+  <si>
+    <t>LOGentry00014, Unable to extract net as image. Cannot save to file:</t>
+  </si>
+  <si>
+    <t>GUIO_messageBox001, File choosing error. Cannot proceed.</t>
+  </si>
+  <si>
+    <t>LOGentry00015, File choosing error. No extension:</t>
+  </si>
+  <si>
+    <t>GUIO_warning001, \nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n</t>
+  </si>
+  <si>
+    <t>GUIO_warning002, Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.</t>
+  </si>
+  <si>
+    <t>GUIO_warning003, Selected net file format:</t>
+  </si>
+  <si>
+    <t>GUIO_warning003title, Invalid out net file format</t>
+  </si>
+  <si>
+    <t>GUIO_button001, Load invariants</t>
+  </si>
+  <si>
+    <t>GUIO_button001b, Select invariant file</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv001, Net saving as .pnt file failed. There may be problems with file:</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv002,  or there is no network yet.</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv003, Missing net or file</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv004, INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv005, Please wait</t>
+  </si>
+  <si>
+    <t>LOGentry00016, Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.</t>
+  </si>
+  <si>
+    <t>LOGentry00017, INAwin32.exe process finished. Reading results...</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv006, I/O operation: activating INAwin32.exe failed.</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv007, No invariants file - using INAwin32.exe failed.</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv009, No, thanks</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv010, Do you want to save generated .inv file?</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv011, Save the invariants?</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv012, Select invariants target path</t>
+  </si>
+  <si>
+    <t>LOGentry00018, Invariants generation successful.</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv013, Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv014, Missing files</t>
+  </si>
+  <si>
+    <t>GUIO_invariants001, Invariants generation already in progress.</t>
+  </si>
+  <si>
+    <t>GUIO_invariants002, Generator working</t>
+  </si>
+  <si>
+    <t>GUIO_mct001, Exporting net into CSV file failed.</t>
+  </si>
+  <si>
+    <t>GUIO_mct002, Write error</t>
+  </si>
+  <si>
+    <t>LOGentry00019, Starting MCT generator.</t>
+  </si>
+  <si>
+    <t>GUIO_mct003, Select MCT target path</t>
+  </si>
+  <si>
+    <t>GUIO_mct004, MCT file created</t>
+  </si>
+  <si>
+    <t>GUIO_mct005, Operation successful.</t>
+  </si>
+  <si>
+    <t>LOGentry00020, MCT file saved. Path:</t>
+  </si>
+  <si>
+    <t>GUIO_mct006, MCT file created</t>
+  </si>
+  <si>
+    <t>GUIO_mct007, File operation failed when creating MCT sets.</t>
+  </si>
+  <si>
+    <t>GUIO_mct008, MCT generator error</t>
+  </si>
+  <si>
+    <t>LOGentry00021, MCT generator failed:</t>
+  </si>
+  <si>
+    <t>LOGentry00022, Warning: unable to check if given clusters number (</t>
+  </si>
+  <si>
+    <t>LOGentry00023, ) exceeds invariants number. If so, the procedure may fail.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters001, Select CH metric directory</t>
+  </si>
+  <si>
+    <t>GUIO_clusters002, Use temporary directory</t>
+  </si>
+  <si>
+    <t>GUIO_clusters003, Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters004, Directory selection</t>
+  </si>
+  <si>
+    <t>GUIO_clusters005, Select CH metric dir</t>
+  </si>
+  <si>
+    <t>GUIO_clusters006, Target directory for CH metric results</t>
+  </si>
+  <si>
+    <t>LOGentry00024, CH metric files will be put into the</t>
+  </si>
+  <si>
+    <t>LOGentry00025, Cluster files will be put into the</t>
+  </si>
+  <si>
+    <t>LOGentry00026, Cluster files will be put into the</t>
+  </si>
+  <si>
+    <t>LOGentry00027, Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters007, CH metric computation failed for</t>
+  </si>
+  <si>
+    <t>GUIO_clusters008,  clusters.\nPath:</t>
+  </si>
+  <si>
+    <t>LOGentry00028, Warning: unable to check if a given number of clusters (</t>
+  </si>
+  <si>
+    <t>LOGentry00029, ) exceeds invariants number. If so, the procedure may fail.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters009, Select cluster directory</t>
+  </si>
+  <si>
+    <t>GUIO_clusters009b, Use temporary directory</t>
+  </si>
+  <si>
+    <t>GUIO_clusters009c, Cancel operation</t>
+  </si>
+  <si>
+    <t>GUIO_clusters010, Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters011, Select cluster dir</t>
+  </si>
+  <si>
+    <t>GUIO_clusters012, Target directory for cluster results</t>
+  </si>
+  <si>
+    <t>LOGentry00030, Cluster files will be put into the</t>
+  </si>
+  <si>
+    <t>GUIO_clusters013, Clustering generation failed for</t>
+  </si>
+  <si>
+    <t>GUIO_clusters014,  clusters.\nPath:</t>
+  </si>
+  <si>
+    <t>GUIO_csv001, CSV invariants file (.csv)</t>
+  </si>
+  <si>
+    <t>GUIO_csv002, Select CSV</t>
+  </si>
+  <si>
+    <t>GUIO_csv003, Select CSV file</t>
+  </si>
+  <si>
+    <t>GUIO_csv004, Select invariants file manually</t>
+  </si>
+  <si>
+    <t>GUIO_csv004b, Use computed invariants</t>
+  </si>
+  <si>
+    <t>LOGentry00031, Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).</t>
+  </si>
+  <si>
+    <t>GUIO_inv001, Invariants source</t>
+  </si>
+  <si>
+    <t>GUIO_inv002, Exporting invariants into CSV file failed.\nCluster procedure cannot begin.</t>
+  </si>
+  <si>
+    <t>GUIO_inv003, CSV export error</t>
+  </si>
+  <si>
+    <t>GUIO_clusters015, Manually locate file</t>
+  </si>
+  <si>
+    <t>GUIO_clusters015b, Cancel procedure</t>
+  </si>
+  <si>
+    <t>GUIO_clusters016, No input.csv file in:\n</t>
+  </si>
+  <si>
+    <t>GUIO_clusters017, \nDo you want to select location manually?</t>
+  </si>
+  <si>
+    <t>GUIO_clusters018, No CSV invariants file</t>
+  </si>
+  <si>
+    <t>GUIO_clusters019, Select CSV invariants file</t>
+  </si>
+  <si>
+    <t>GUIO_clusters020, CSV invariants file:</t>
+  </si>
+  <si>
+    <t>GUIO_clusters021,  located. Starting single clustering procedure.</t>
+  </si>
+  <si>
+    <t>GUIO_clusters022, Starting MCT generator for file:</t>
+  </si>
+  <si>
+    <t>GUIO_clusters023, MCT generation (file) failed for:</t>
+  </si>
+  <si>
+    <t>LOGentry00032, R function failed for parameters:</t>
+  </si>
+  <si>
+    <t>LOGentry00032b, File name:</t>
+  </si>
+  <si>
+    <t>LOGentry00032c, Output dir:</t>
+  </si>
+  <si>
+    <t>LOGentry00032d, Algorithm:</t>
+  </si>
+  <si>
+    <t>LOGentry00032e, Metric:</t>
+  </si>
+  <si>
+    <t>LOGentry00032f, No. of clusters:</t>
+  </si>
+  <si>
+    <t>GUIO_clusters024, Clustering failed. Check log.</t>
+  </si>
+  <si>
+    <t>LOGentry00033, Unable to update simulator fields: (XTPN=</t>
+  </si>
+  <si>
+    <t>LOGentry00033b, ; stepsValue=</t>
+  </si>
+  <si>
+    <t>LOGentry00033c, ; stepsValue=</t>
+  </si>
+  <si>
+    <t>GUIO_fix001, Invisible arc: p</t>
+  </si>
+  <si>
+    <t>GUIO_fix002, . Removing...</t>
+  </si>
+  <si>
+    <t>GUIO_fix003, Invisible arc: t</t>
+  </si>
+  <si>
+    <t>GUIO_fix004, Arc list:</t>
+  </si>
+  <si>
+    <t>GUIO_fix005, , processed arcs:</t>
+  </si>
+  <si>
+    <t>GUIO_fix006, , removed ghost-arcs:</t>
+  </si>
+  <si>
+    <t>save, Save</t>
+  </si>
+  <si>
+    <t>select, Select</t>
+  </si>
+  <si>
+    <t>error, Error</t>
+  </si>
+  <si>
+    <t>critError, Critical error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIO_warning003b, Net real type: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIO_warning003c, Suggested file format: </t>
+  </si>
+  <si>
+    <t>GUIO_warning003d, Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n</t>
+  </si>
+  <si>
+    <t>GUIO_inaInv008, Save .inv file</t>
   </si>
 </sst>
 </file>
@@ -559,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541A0FC-B179-4723-94EA-B1D336EB6EFC}">
   <dimension ref="A2:D5254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,7 +1558,9 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B41" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1250,1465 +1576,1756 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="e">
+        <v>46</v>
+      </c>
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C42" t="e">
+        <v>GUIO_openProject001</v>
+      </c>
+      <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D42" t="e">
+        <v>Reading project file succcessful.</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("GUIO_openProject001","Reading project file succcessful.");</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>exit</v>
+        <v>LOGentry00014</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>Exit</v>
+        <v>Unable to extract net as image. Cannot save to file:</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("exit","Exit");</v>
+        <v>defaultEnglish.put("LOGentry00014","Unable to extract net as image. Cannot save to file:");</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>saveAndExit</v>
+        <v>GUIO_messageBox001</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>Save and Exit</v>
+        <v>File choosing error. Cannot proceed.</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("saveAndExit","Save and Exit");</v>
+        <v>defaultEnglish.put("GUIO_messageBox001","File choosing error. Cannot proceed.");</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>cancel</v>
+        <v>LOGentry00015</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>Cancel</v>
+        <v>File choosing error. No extension:</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("cancel","Cancel");</v>
+        <v>defaultEnglish.put("LOGentry00015","File choosing error. No extension:");</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>fixed</v>
+        <v>GUIO_warning001</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <v>\nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("fixed","Fixed");</v>
+        <v>defaultEnglish.put("GUIO_warning001","\nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n");</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>netSimWork01</v>
+        <v>GUIO_warning002</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>Net simulator working</v>
+        <v>Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("netSimWork01","Net simulator working");</v>
+        <v>defaultEnglish.put("GUIO_warning002","Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.");</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" t="e">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
+        <v>GUIO_warning003</v>
+      </c>
+      <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" t="e">
+        <v>Selected net file format:</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="e">
+        <v>defaultEnglish.put("GUIO_warning003","Selected net file format:");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
+        <v>GUIO_warning003b</v>
+      </c>
+      <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
+        <v xml:space="preserve">Net real type: </v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="e">
+        <v>defaultEnglish.put("GUIO_warning003b","Net real type: ");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C50" t="e">
+        <v>GUIO_warning003c</v>
+      </c>
+      <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
+        <v xml:space="preserve">Suggested file format: </v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="e">
+        <v>defaultEnglish.put("GUIO_warning003c","Suggested file format: ");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C51" t="e">
+        <v>GUIO_warning003d</v>
+      </c>
+      <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
+        <v>Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="e">
+        <v>defaultEnglish.put("GUIO_warning003d","Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C52" t="e">
+        <v>GUIO_warning003title</v>
+      </c>
+      <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
+        <v>Invalid out net file format</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="e">
+        <v>defaultEnglish.put("GUIO_warning003title","Invalid out net file format");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" t="e">
+        <v>GUIO_button001</v>
+      </c>
+      <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" t="e">
+        <v>Load invariants</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="e">
+        <v>defaultEnglish.put("GUIO_button001","Load invariants");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C54" t="e">
+        <v>GUIO_button001b</v>
+      </c>
+      <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D54" t="e">
+        <v>Select invariant file</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" t="e">
+        <v>defaultEnglish.put("GUIO_button001b","Select invariant file");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C55" t="e">
+        <v>GUIO_inaInv001</v>
+      </c>
+      <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" t="e">
+        <v>Net saving as .pnt file failed. There may be problems with file:</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv001","Net saving as .pnt file failed. There may be problems with file:");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C56" t="e">
+        <v>GUIO_inaInv002</v>
+      </c>
+      <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" t="e">
+        <v xml:space="preserve"> or there is no network yet.</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv002"," or there is no network yet.");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C57" t="e">
+        <v>GUIO_inaInv003</v>
+      </c>
+      <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" t="e">
+        <v>Missing net or file</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv003","Missing net or file");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C58" t="e">
+        <v>GUIO_inaInv004</v>
+      </c>
+      <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D58" t="e">
+        <v>INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.</v>
+      </c>
+      <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv004","INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C59" t="e">
+        <v>GUIO_inaInv005</v>
+      </c>
+      <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D59" t="e">
+        <v>Please wait</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv005","Please wait");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C60" t="e">
+        <v>LOGentry00016</v>
+      </c>
+      <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" t="e">
+        <v>Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="e">
+        <v>defaultEnglish.put("LOGentry00016","Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" t="e">
+        <v>LOGentry00017</v>
+      </c>
+      <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" t="e">
+        <v>INAwin32.exe process finished. Reading results...</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="e">
+        <v>defaultEnglish.put("LOGentry00017","INAwin32.exe process finished. Reading results...");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" t="e">
+        <v>GUIO_inaInv006</v>
+      </c>
+      <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" t="e">
+        <v>I/O operation: activating INAwin32.exe failed.</v>
+      </c>
+      <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv006","I/O operation: activating INAwin32.exe failed.");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C63" t="e">
+        <v>GUIO_inaInv007</v>
+      </c>
+      <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" t="e">
+        <v>No invariants file - using INAwin32.exe failed.</v>
+      </c>
+      <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv007","No invariants file - using INAwin32.exe failed.");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" t="e">
+        <v>GUIO_inaInv008</v>
+      </c>
+      <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" t="e">
+        <v>Save .inv file</v>
+      </c>
+      <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv008","Save .inv file");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" t="e">
+        <v>GUIO_inaInv009</v>
+      </c>
+      <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" t="e">
+        <v>No, thanks</v>
+      </c>
+      <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv009","No, thanks");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C66" t="e">
+        <v>GUIO_inaInv010</v>
+      </c>
+      <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D66" t="e">
+        <v>Do you want to save generated .inv file?</v>
+      </c>
+      <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv010","Do you want to save generated .inv file?");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="3">_xlfn.TEXTBEFORE(A67,",")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C67" t="e">
+        <v>GUIO_inaInv011</v>
+      </c>
+      <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="4">_xlfn.TEXTAFTER(A67,", ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" t="e">
+        <v>Save the invariants?</v>
+      </c>
+      <c r="D67" t="str">
         <f t="shared" ref="D67:D130" si="5">_xlfn.CONCAT("defaultEnglish.put(","""",B67,""",""",C67,""");")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv011","Save the invariants?");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C68" t="e">
+        <v>GUIO_inaInv012</v>
+      </c>
+      <c r="C68" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" t="e">
+        <v>Select invariants target path</v>
+      </c>
+      <c r="D68" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv012","Select invariants target path");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C69" t="e">
+        <v>LOGentry00018</v>
+      </c>
+      <c r="C69" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" t="e">
+        <v>Invariants generation successful.</v>
+      </c>
+      <c r="D69" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" t="e">
+        <v>defaultEnglish.put("LOGentry00018","Invariants generation successful.");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C70" t="e">
+        <v>GUIO_inaInv013</v>
+      </c>
+      <c r="C70" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D70" t="e">
+        <v>Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina</v>
+      </c>
+      <c r="D70" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv013","Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C71" t="e">
+        <v>GUIO_inaInv014</v>
+      </c>
+      <c r="C71" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" t="e">
+        <v>Missing files</v>
+      </c>
+      <c r="D71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" t="e">
+        <v>defaultEnglish.put("GUIO_inaInv014","Missing files");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C72" t="e">
+        <v>GUIO_invariants001</v>
+      </c>
+      <c r="C72" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D72" t="e">
+        <v>Invariants generation already in progress.</v>
+      </c>
+      <c r="D72" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" t="e">
+        <v>defaultEnglish.put("GUIO_invariants001","Invariants generation already in progress.");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C73" t="e">
+        <v>GUIO_invariants002</v>
+      </c>
+      <c r="C73" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D73" t="e">
+        <v>Generator working</v>
+      </c>
+      <c r="D73" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" t="e">
+        <v>defaultEnglish.put("GUIO_invariants002","Generator working");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C74" t="e">
+        <v>GUIO_mct001</v>
+      </c>
+      <c r="C74" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D74" t="e">
+        <v>Exporting net into CSV file failed.</v>
+      </c>
+      <c r="D74" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" t="e">
+        <v>defaultEnglish.put("GUIO_mct001","Exporting net into CSV file failed.");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C75" t="e">
+        <v>GUIO_mct002</v>
+      </c>
+      <c r="C75" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D75" t="e">
+        <v>Write error</v>
+      </c>
+      <c r="D75" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" t="e">
+        <v>defaultEnglish.put("GUIO_mct002","Write error");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C76" t="e">
+        <v>LOGentry00019</v>
+      </c>
+      <c r="C76" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D76" t="e">
+        <v>Starting MCT generator.</v>
+      </c>
+      <c r="D76" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" t="e">
+        <v>defaultEnglish.put("LOGentry00019","Starting MCT generator.");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C77" t="e">
+        <v>GUIO_mct003</v>
+      </c>
+      <c r="C77" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" t="e">
+        <v>Select MCT target path</v>
+      </c>
+      <c r="D77" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" t="e">
+        <v>defaultEnglish.put("GUIO_mct003","Select MCT target path");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C78" t="e">
+        <v>GUIO_mct004</v>
+      </c>
+      <c r="C78" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" t="e">
+        <v>MCT file created</v>
+      </c>
+      <c r="D78" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" t="e">
+        <v>defaultEnglish.put("GUIO_mct004","MCT file created");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C79" t="e">
+        <v>GUIO_mct005</v>
+      </c>
+      <c r="C79" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D79" t="e">
+        <v>Operation successful.</v>
+      </c>
+      <c r="D79" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" t="e">
+        <v>defaultEnglish.put("GUIO_mct005","Operation successful.");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C80" t="e">
+        <v>LOGentry00020</v>
+      </c>
+      <c r="C80" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D80" t="e">
+        <v>MCT file saved. Path:</v>
+      </c>
+      <c r="D80" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" t="e">
+        <v>defaultEnglish.put("LOGentry00020","MCT file saved. Path:");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C81" t="e">
+        <v>GUIO_mct006</v>
+      </c>
+      <c r="C81" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D81" t="e">
+        <v>MCT file created</v>
+      </c>
+      <c r="D81" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" t="e">
+        <v>defaultEnglish.put("GUIO_mct006","MCT file created");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C82" t="e">
+        <v>GUIO_mct007</v>
+      </c>
+      <c r="C82" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D82" t="e">
+        <v>File operation failed when creating MCT sets.</v>
+      </c>
+      <c r="D82" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" t="e">
+        <v>defaultEnglish.put("GUIO_mct007","File operation failed when creating MCT sets.");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C83" t="e">
+        <v>GUIO_mct008</v>
+      </c>
+      <c r="C83" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D83" t="e">
+        <v>MCT generator error</v>
+      </c>
+      <c r="D83" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" t="e">
+        <v>defaultEnglish.put("GUIO_mct008","MCT generator error");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C84" t="e">
+        <v>LOGentry00021</v>
+      </c>
+      <c r="C84" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" t="e">
+        <v>MCT generator failed:</v>
+      </c>
+      <c r="D84" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" t="e">
+        <v>defaultEnglish.put("LOGentry00021","MCT generator failed:");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C85" t="e">
+        <v>LOGentry00022</v>
+      </c>
+      <c r="C85" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D85" t="e">
+        <v>Warning: unable to check if given clusters number (</v>
+      </c>
+      <c r="D85" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" t="e">
+        <v>defaultEnglish.put("LOGentry00022","Warning: unable to check if given clusters number (");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C86" t="e">
+        <v>LOGentry00023</v>
+      </c>
+      <c r="C86" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" t="e">
+        <v>) exceeds invariants number. If so, the procedure may fail.</v>
+      </c>
+      <c r="D86" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" t="e">
+        <v>defaultEnglish.put("LOGentry00023",") exceeds invariants number. If so, the procedure may fail.");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C87" t="e">
+        <v>GUIO_clusters001</v>
+      </c>
+      <c r="C87" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" t="e">
+        <v>Select CH metric directory</v>
+      </c>
+      <c r="D87" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" t="e">
+        <v>defaultEnglish.put("GUIO_clusters001","Select CH metric directory");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C88" t="e">
+        <v>GUIO_clusters002</v>
+      </c>
+      <c r="C88" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" t="e">
+        <v>Use temporary directory</v>
+      </c>
+      <c r="D88" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" t="e">
+        <v>defaultEnglish.put("GUIO_clusters002","Use temporary directory");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C89" t="e">
+        <v>GUIO_clusters003</v>
+      </c>
+      <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" t="e">
+        <v>Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.</v>
+      </c>
+      <c r="D89" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" t="e">
+        <v>defaultEnglish.put("GUIO_clusters003","Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C90" t="e">
+        <v>GUIO_clusters004</v>
+      </c>
+      <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" t="e">
+        <v>Directory selection</v>
+      </c>
+      <c r="D90" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" t="e">
+        <v>defaultEnglish.put("GUIO_clusters004","Directory selection");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C91" t="e">
+        <v>GUIO_clusters005</v>
+      </c>
+      <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" t="e">
+        <v>Select CH metric dir</v>
+      </c>
+      <c r="D91" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" t="e">
+        <v>defaultEnglish.put("GUIO_clusters005","Select CH metric dir");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C92" t="e">
+        <v>GUIO_clusters006</v>
+      </c>
+      <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" t="e">
+        <v>Target directory for CH metric results</v>
+      </c>
+      <c r="D92" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" t="e">
+        <v>defaultEnglish.put("GUIO_clusters006","Target directory for CH metric results");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C93" t="e">
+        <v>LOGentry00024</v>
+      </c>
+      <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" t="e">
+        <v>CH metric files will be put into the</v>
+      </c>
+      <c r="D93" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" t="e">
+        <v>defaultEnglish.put("LOGentry00024","CH metric files will be put into the");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C94" t="e">
+        <v>LOGentry00025</v>
+      </c>
+      <c r="C94" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" t="e">
+        <v>Cluster files will be put into the</v>
+      </c>
+      <c r="D94" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" t="e">
+        <v>defaultEnglish.put("LOGentry00025","Cluster files will be put into the");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C95" t="e">
+        <v>LOGentry00026</v>
+      </c>
+      <c r="C95" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" t="e">
+        <v>Cluster files will be put into the</v>
+      </c>
+      <c r="D95" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" t="e">
+        <v>defaultEnglish.put("LOGentry00026","Cluster files will be put into the");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C96" t="e">
+        <v>LOGentry00027</v>
+      </c>
+      <c r="C96" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D96" t="e">
+        <v>Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.</v>
+      </c>
+      <c r="D96" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" t="e">
+        <v>defaultEnglish.put("LOGentry00027","Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C97" t="e">
+        <v>GUIO_clusters007</v>
+      </c>
+      <c r="C97" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" t="e">
+        <v>CH metric computation failed for</v>
+      </c>
+      <c r="D97" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" t="e">
+        <v>defaultEnglish.put("GUIO_clusters007","CH metric computation failed for");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C98" t="e">
+        <v>GUIO_clusters008</v>
+      </c>
+      <c r="C98" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" t="e">
+        <v xml:space="preserve"> clusters.\nPath:</v>
+      </c>
+      <c r="D98" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" t="e">
+        <v>defaultEnglish.put("GUIO_clusters008"," clusters.\nPath:");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C99" t="e">
+        <v>LOGentry00028</v>
+      </c>
+      <c r="C99" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D99" t="e">
+        <v>Warning: unable to check if a given number of clusters (</v>
+      </c>
+      <c r="D99" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" t="e">
+        <v>defaultEnglish.put("LOGentry00028","Warning: unable to check if a given number of clusters (");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C100" t="e">
+        <v>LOGentry00029</v>
+      </c>
+      <c r="C100" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D100" t="e">
+        <v>) exceeds invariants number. If so, the procedure may fail.</v>
+      </c>
+      <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" t="e">
+        <v>defaultEnglish.put("LOGentry00029",") exceeds invariants number. If so, the procedure may fail.");</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C101" t="e">
+        <v>GUIO_clusters009</v>
+      </c>
+      <c r="C101" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D101" t="e">
+        <v>Select cluster directory</v>
+      </c>
+      <c r="D101" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" t="e">
+        <v>defaultEnglish.put("GUIO_clusters009","Select cluster directory");</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C102" t="e">
+        <v>GUIO_clusters009b</v>
+      </c>
+      <c r="C102" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D102" t="e">
+        <v>Use temporary directory</v>
+      </c>
+      <c r="D102" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" t="e">
+        <v>defaultEnglish.put("GUIO_clusters009b","Use temporary directory");</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C103" t="e">
+        <v>GUIO_clusters009c</v>
+      </c>
+      <c r="C103" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D103" t="e">
+        <v>Cancel operation</v>
+      </c>
+      <c r="D103" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="e">
+        <v>defaultEnglish.put("GUIO_clusters009c","Cancel operation");</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C104" t="e">
+        <v>GUIO_clusters010</v>
+      </c>
+      <c r="C104" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" t="e">
+        <v>Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.</v>
+      </c>
+      <c r="D104" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" t="e">
+        <v>defaultEnglish.put("GUIO_clusters010","Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C105" t="e">
+        <v>GUIO_clusters011</v>
+      </c>
+      <c r="C105" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" t="e">
+        <v>Select cluster dir</v>
+      </c>
+      <c r="D105" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" t="e">
+        <v>defaultEnglish.put("GUIO_clusters011","Select cluster dir");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C106" t="e">
+        <v>GUIO_clusters012</v>
+      </c>
+      <c r="C106" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" t="e">
+        <v>Target directory for cluster results</v>
+      </c>
+      <c r="D106" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" t="e">
+        <v>defaultEnglish.put("GUIO_clusters012","Target directory for cluster results");</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C107" t="e">
+        <v>LOGentry00030</v>
+      </c>
+      <c r="C107" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" t="e">
+        <v>Cluster files will be put into the</v>
+      </c>
+      <c r="D107" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" t="e">
+        <v>defaultEnglish.put("LOGentry00030","Cluster files will be put into the");</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C108" t="e">
+        <v>GUIO_clusters013</v>
+      </c>
+      <c r="C108" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" t="e">
+        <v>Clustering generation failed for</v>
+      </c>
+      <c r="D108" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" t="e">
+        <v>defaultEnglish.put("GUIO_clusters013","Clustering generation failed for");</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C109" t="e">
+        <v>GUIO_clusters014</v>
+      </c>
+      <c r="C109" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" t="e">
+        <v xml:space="preserve"> clusters.\nPath:</v>
+      </c>
+      <c r="D109" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" t="e">
+        <v>defaultEnglish.put("GUIO_clusters014"," clusters.\nPath:");</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C110" t="e">
+        <v>GUIO_csv001</v>
+      </c>
+      <c r="C110" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D110" t="e">
+        <v>CSV invariants file (.csv)</v>
+      </c>
+      <c r="D110" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" t="e">
+        <v>defaultEnglish.put("GUIO_csv001","CSV invariants file (.csv)");</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C111" t="e">
+        <v>GUIO_csv002</v>
+      </c>
+      <c r="C111" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D111" t="e">
+        <v>Select CSV</v>
+      </c>
+      <c r="D111" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" t="e">
+        <v>defaultEnglish.put("GUIO_csv002","Select CSV");</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C112" t="e">
+        <v>GUIO_csv003</v>
+      </c>
+      <c r="C112" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D112" t="e">
+        <v>Select CSV file</v>
+      </c>
+      <c r="D112" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4">
-      <c r="B113" t="e">
+        <v>defaultEnglish.put("GUIO_csv003","Select CSV file");</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C113" t="e">
+        <v>GUIO_csv004</v>
+      </c>
+      <c r="C113" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D113" t="e">
+        <v>Select invariants file manually</v>
+      </c>
+      <c r="D113" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" t="e">
+        <v>defaultEnglish.put("GUIO_csv004","Select invariants file manually");</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C114" t="e">
+        <v>GUIO_csv004b</v>
+      </c>
+      <c r="C114" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D114" t="e">
+        <v>Use computed invariants</v>
+      </c>
+      <c r="D114" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" t="e">
+        <v>defaultEnglish.put("GUIO_csv004b","Use computed invariants");</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C115" t="e">
+        <v>LOGentry00031</v>
+      </c>
+      <c r="C115" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D115" t="e">
+        <v>Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).</v>
+      </c>
+      <c r="D115" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" t="e">
+        <v>defaultEnglish.put("LOGentry00031","Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).");</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C116" t="e">
+        <v>GUIO_inv001</v>
+      </c>
+      <c r="C116" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D116" t="e">
+        <v>Invariants source</v>
+      </c>
+      <c r="D116" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" t="e">
+        <v>defaultEnglish.put("GUIO_inv001","Invariants source");</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C117" t="e">
+        <v>GUIO_inv002</v>
+      </c>
+      <c r="C117" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D117" t="e">
+        <v>Exporting invariants into CSV file failed.\nCluster procedure cannot begin.</v>
+      </c>
+      <c r="D117" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" t="e">
+        <v>defaultEnglish.put("GUIO_inv002","Exporting invariants into CSV file failed.\nCluster procedure cannot begin.");</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C118" t="e">
+        <v>GUIO_inv003</v>
+      </c>
+      <c r="C118" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D118" t="e">
+        <v>CSV export error</v>
+      </c>
+      <c r="D118" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="B119" t="e">
+        <v>defaultEnglish.put("GUIO_inv003","CSV export error");</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C119" t="e">
+        <v>GUIO_clusters015</v>
+      </c>
+      <c r="C119" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D119" t="e">
+        <v>Manually locate file</v>
+      </c>
+      <c r="D119" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
-      <c r="B120" t="e">
+        <v>defaultEnglish.put("GUIO_clusters015","Manually locate file");</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C120" t="e">
+        <v>GUIO_clusters015b</v>
+      </c>
+      <c r="C120" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D120" t="e">
+        <v>Cancel procedure</v>
+      </c>
+      <c r="D120" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
-      <c r="B121" t="e">
+        <v>defaultEnglish.put("GUIO_clusters015b","Cancel procedure");</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C121" t="e">
+        <v>GUIO_clusters016</v>
+      </c>
+      <c r="C121" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D121" t="e">
+        <v>No input.csv file in:\n</v>
+      </c>
+      <c r="D121" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" t="e">
+        <v>defaultEnglish.put("GUIO_clusters016","No input.csv file in:\n");</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C122" t="e">
+        <v>GUIO_clusters017</v>
+      </c>
+      <c r="C122" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D122" t="e">
+        <v>\nDo you want to select location manually?</v>
+      </c>
+      <c r="D122" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4">
-      <c r="B123" t="e">
+        <v>defaultEnglish.put("GUIO_clusters017","\nDo you want to select location manually?");</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C123" t="e">
+        <v>GUIO_clusters018</v>
+      </c>
+      <c r="C123" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D123" t="e">
+        <v>No CSV invariants file</v>
+      </c>
+      <c r="D123" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4">
-      <c r="B124" t="e">
+        <v>defaultEnglish.put("GUIO_clusters018","No CSV invariants file");</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C124" t="e">
+        <v>GUIO_clusters019</v>
+      </c>
+      <c r="C124" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D124" t="e">
+        <v>Select CSV invariants file</v>
+      </c>
+      <c r="D124" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4">
-      <c r="B125" t="e">
+        <v>defaultEnglish.put("GUIO_clusters019","Select CSV invariants file");</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C125" t="e">
+        <v>GUIO_clusters020</v>
+      </c>
+      <c r="C125" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D125" t="e">
+        <v>CSV invariants file:</v>
+      </c>
+      <c r="D125" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4">
-      <c r="B126" t="e">
+        <v>defaultEnglish.put("GUIO_clusters020","CSV invariants file:");</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C126" t="e">
+        <v>GUIO_clusters021</v>
+      </c>
+      <c r="C126" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D126" t="e">
+        <v xml:space="preserve"> located. Starting single clustering procedure.</v>
+      </c>
+      <c r="D126" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4">
-      <c r="B127" t="e">
+        <v>defaultEnglish.put("GUIO_clusters021"," located. Starting single clustering procedure.");</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C127" t="e">
+        <v>GUIO_clusters022</v>
+      </c>
+      <c r="C127" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D127" t="e">
+        <v>Starting MCT generator for file:</v>
+      </c>
+      <c r="D127" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4">
-      <c r="B128" t="e">
+        <v>defaultEnglish.put("GUIO_clusters022","Starting MCT generator for file:");</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C128" t="e">
+        <v>GUIO_clusters023</v>
+      </c>
+      <c r="C128" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D128" t="e">
+        <v>MCT generation (file) failed for:</v>
+      </c>
+      <c r="D128" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129" t="e">
+        <v>defaultEnglish.put("GUIO_clusters023","MCT generation (file) failed for:");</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C129" t="e">
+        <v>LOGentry00032</v>
+      </c>
+      <c r="C129" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D129" t="e">
+        <v>R function failed for parameters:</v>
+      </c>
+      <c r="D129" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
-      <c r="B130" t="e">
+        <v>defaultEnglish.put("LOGentry00032","R function failed for parameters:");</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C130" t="e">
+        <v>LOGentry00032b</v>
+      </c>
+      <c r="C130" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D130" t="e">
+        <v>File name:</v>
+      </c>
+      <c r="D130" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
-      <c r="B131" t="e">
+        <v>defaultEnglish.put("LOGentry00032b","File name:");</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="str">
         <f t="shared" ref="B131:B194" si="6">_xlfn.TEXTBEFORE(A131,",")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C131" t="e">
+        <v>LOGentry00032c</v>
+      </c>
+      <c r="C131" t="str">
         <f t="shared" ref="C131:C194" si="7">_xlfn.TEXTAFTER(A131,", ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D131" t="e">
+        <v>Output dir:</v>
+      </c>
+      <c r="D131" t="str">
         <f t="shared" ref="D131:D194" si="8">_xlfn.CONCAT("defaultEnglish.put(","""",B131,""",""",C131,""");")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132" t="e">
+        <v>defaultEnglish.put("LOGentry00032c","Output dir:");</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C132" t="e">
+        <v>LOGentry00032d</v>
+      </c>
+      <c r="C132" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D132" t="e">
+        <v>Algorithm:</v>
+      </c>
+      <c r="D132" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
-      <c r="B133" t="e">
+        <v>defaultEnglish.put("LOGentry00032d","Algorithm:");</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C133" t="e">
+        <v>LOGentry00032e</v>
+      </c>
+      <c r="C133" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D133" t="e">
+        <v>Metric:</v>
+      </c>
+      <c r="D133" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" t="e">
+        <v>defaultEnglish.put("LOGentry00032e","Metric:");</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C134" t="e">
+        <v>LOGentry00032f</v>
+      </c>
+      <c r="C134" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D134" t="e">
+        <v>No. of clusters:</v>
+      </c>
+      <c r="D134" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" t="e">
+        <v>defaultEnglish.put("LOGentry00032f","No. of clusters:");</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C135" t="e">
+        <v>GUIO_clusters024</v>
+      </c>
+      <c r="C135" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D135" t="e">
+        <v>Clustering failed. Check log.</v>
+      </c>
+      <c r="D135" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136" t="e">
+        <v>defaultEnglish.put("GUIO_clusters024","Clustering failed. Check log.");</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C136" t="e">
+        <v>LOGentry00033</v>
+      </c>
+      <c r="C136" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D136" t="e">
+        <v>Unable to update simulator fields: (XTPN=</v>
+      </c>
+      <c r="D136" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" t="e">
+        <v>defaultEnglish.put("LOGentry00033","Unable to update simulator fields: (XTPN=");</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C137" t="e">
+        <v>LOGentry00033b</v>
+      </c>
+      <c r="C137" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D137" t="e">
+        <v>; stepsValue=</v>
+      </c>
+      <c r="D137" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4">
-      <c r="B138" t="e">
+        <v>defaultEnglish.put("LOGentry00033b","; stepsValue=");</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C138" t="e">
+        <v>LOGentry00033c</v>
+      </c>
+      <c r="C138" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D138" t="e">
+        <v>; stepsValue=</v>
+      </c>
+      <c r="D138" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" t="e">
+        <v>defaultEnglish.put("LOGentry00033c","; stepsValue=");</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C139" t="e">
+        <v>GUIO_fix001</v>
+      </c>
+      <c r="C139" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D139" t="e">
+        <v>Invisible arc: p</v>
+      </c>
+      <c r="D139" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="B140" t="e">
+        <v>defaultEnglish.put("GUIO_fix001","Invisible arc: p");</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C140" t="e">
+        <v>GUIO_fix002</v>
+      </c>
+      <c r="C140" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D140" t="e">
+        <v>. Removing...</v>
+      </c>
+      <c r="D140" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" t="e">
+        <v>defaultEnglish.put("GUIO_fix002",". Removing...");</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C141" t="e">
+        <v>GUIO_fix003</v>
+      </c>
+      <c r="C141" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D141" t="e">
+        <v>Invisible arc: t</v>
+      </c>
+      <c r="D141" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" t="e">
+        <v>defaultEnglish.put("GUIO_fix003","Invisible arc: t");</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C142" t="e">
+        <v>GUIO_fix004</v>
+      </c>
+      <c r="C142" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D142" t="e">
+        <v>Arc list:</v>
+      </c>
+      <c r="D142" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" t="e">
+        <v>defaultEnglish.put("GUIO_fix004","Arc list:");</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C143" t="e">
+        <v>GUIO_fix005</v>
+      </c>
+      <c r="C143" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D143" t="e">
+        <v>, processed arcs:</v>
+      </c>
+      <c r="D143" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" t="e">
+        <v>defaultEnglish.put("GUIO_fix005",", processed arcs:");</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C144" t="e">
+        <v>GUIO_fix006</v>
+      </c>
+      <c r="C144" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D144" t="e">
+        <v>, removed ghost-arcs:</v>
+      </c>
+      <c r="D144" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
+        <v>defaultEnglish.put("GUIO_fix006",", removed ghost-arcs:");</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="B145" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2722,7 +3339,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
       <c r="B146" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2736,133 +3356,160 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
-      <c r="B147" t="e">
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C147" t="e">
+        <v>exit</v>
+      </c>
+      <c r="C147" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D147" t="e">
+        <v>Exit</v>
+      </c>
+      <c r="D147" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" t="e">
+        <v>defaultEnglish.put("exit","Exit");</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C148" t="e">
+        <v>saveAndExit</v>
+      </c>
+      <c r="C148" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D148" t="e">
+        <v>Save and Exit</v>
+      </c>
+      <c r="D148" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" t="e">
+        <v>defaultEnglish.put("saveAndExit","Save and Exit");</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C149" t="e">
+        <v>save</v>
+      </c>
+      <c r="C149" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D149" t="e">
+        <v>Save</v>
+      </c>
+      <c r="D149" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" t="e">
+        <v>defaultEnglish.put("save","Save");</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C150" t="e">
+        <v>select</v>
+      </c>
+      <c r="C150" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D150" t="e">
+        <v>Select</v>
+      </c>
+      <c r="D150" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" t="e">
+        <v>defaultEnglish.put("select","Select");</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C151" t="e">
+        <v>cancel</v>
+      </c>
+      <c r="C151" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D151" t="e">
+        <v>Cancel</v>
+      </c>
+      <c r="D151" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" t="e">
+        <v>defaultEnglish.put("cancel","Cancel");</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C152" t="e">
+        <v>fixed</v>
+      </c>
+      <c r="C152" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D152" t="e">
+        <v>Fixed</v>
+      </c>
+      <c r="D152" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" t="e">
+        <v>defaultEnglish.put("fixed","Fixed");</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C153" t="e">
+        <v>netSimWork01</v>
+      </c>
+      <c r="C153" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D153" t="e">
+        <v>Net simulator working</v>
+      </c>
+      <c r="D153" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" t="e">
+        <v>defaultEnglish.put("netSimWork01","Net simulator working");</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C154" t="e">
+        <v>error</v>
+      </c>
+      <c r="C154" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D154" t="e">
+        <v>Error</v>
+      </c>
+      <c r="D154" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" t="e">
+        <v>defaultEnglish.put("error","Error");</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C155" t="e">
+        <v>critError</v>
+      </c>
+      <c r="C155" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D155" t="e">
+        <v>Critical error</v>
+      </c>
+      <c r="D155" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
+        <v>defaultEnglish.put("critError","Critical error");</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="B156" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2876,7 +3523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="1:4">
       <c r="B157" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2890,7 +3537,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="1:4">
       <c r="B158" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2904,7 +3551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
+    <row r="159" spans="1:4">
       <c r="B159" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2918,7 +3565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="2:4">
+    <row r="160" spans="1:4">
       <c r="B160" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>

--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425012C9-632C-4DD8-8D77-379840844544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7D4D1C-F3D2-4C8D-A8BE-AF14B11D8A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -92,411 +92,6 @@
   <si>
     <t>GUIM_closingQuestion002, Are you sure you want to close the program?</t>
   </si>
-  <si>
-    <t>LOGentry00002, Tools directory does not exist:</t>
-  </si>
-  <si>
-    <t>LOGentry00003, File COMMAND.ina does not exist or is corrupted.</t>
-  </si>
-  <si>
-    <t>GUI_inaProblem001, Unable to recreate COMMAND.ina.</t>
-  </si>
-  <si>
-    <t>GUI_inaProblem002, Error - COMMAND.ina</t>
-  </si>
-  <si>
-    <t>LOGentry00004, Unable to recreate COMMAND.ina. Invariants generator will work in Holmes mode only.</t>
-  </si>
-  <si>
-    <t>LOGentry00005, File COMMANDp.ina does not exist or is corrupted.</t>
-  </si>
-  <si>
-    <t>GUI_inaProblem003, Error - COMMANDp.ina</t>
-  </si>
-  <si>
-    <t>LOGentry00006, File ina.bat did not exist or was corrupted:</t>
-  </si>
-  <si>
-    <t>GUI_inaProblem004, Unable to recreate ina.bat. This is a critical error, possible write protection issues in program directory. Invariants generation using INAwin32 will most likely fail.</t>
-  </si>
-  <si>
-    <t>GUI_inaProblem005, Critical error - writing</t>
-  </si>
-  <si>
-    <t>LOGentry00007, Critical error, unable to recreate ina.bat file. Invariants generator will not work.</t>
-  </si>
-  <si>
-    <t>LOGentry00008R, Invalid path (</t>
-  </si>
-  <si>
-    <t>LOGentry00009R, ) to Rscript executable file.</t>
-  </si>
-  <si>
-    <t>GUI_RscriptProblem001, Manually locate Rscript.exe</t>
-  </si>
-  <si>
-    <t>GUI_RscriptProblem002, R not installed</t>
-  </si>
-  <si>
-    <t>GUI_RscriptProblem003, Rscript.exe missing in path</t>
-  </si>
-  <si>
-    <t>GUI_RscriptProblem004, Missing executable</t>
-  </si>
-  <si>
-    <t>GUI_RscriptButton001, Select Rscript.exe</t>
-  </si>
-  <si>
-    <t>GUI_RscriptButton002tip, Please select Rscript exe, usually located in R/Rx.x.x/bin directory.</t>
-  </si>
-  <si>
-    <t>LOGentry00010R, Rscript executable file inaccessible. Some features (clusters operations) will be disabled.</t>
-  </si>
-  <si>
-    <t>LOGentry00011R, Rscript.exe manually located in</t>
-  </si>
-  <si>
-    <t>LOGentry00012R, . Settings file updated.</t>
-  </si>
-  <si>
-    <t>LOGentry00013R, Rscript.exe location unknown. Clustering procedures will not work.</t>
-  </si>
-  <si>
-    <t>GUI_simulator0001warn, Warning: simulator active. Cannot proceed until manually stopped.</t>
-  </si>
-  <si>
-    <t>GUI_simulator0002warn, Warning: XTPN simulator active. Cannot proceed until manually stopped.</t>
-  </si>
-  <si>
-    <t>fixed, Fixed</t>
-  </si>
-  <si>
-    <t>netSimWork01, Net simulator working</t>
-  </si>
-  <si>
-    <t>//GUIOperations:</t>
-  </si>
-  <si>
-    <t>GUIO_openProject001, Reading project file succcessful.</t>
-  </si>
-  <si>
-    <t>LOGentry00014, Unable to extract net as image. Cannot save to file:</t>
-  </si>
-  <si>
-    <t>GUIO_messageBox001, File choosing error. Cannot proceed.</t>
-  </si>
-  <si>
-    <t>LOGentry00015, File choosing error. No extension:</t>
-  </si>
-  <si>
-    <t>GUIO_warning001, \nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n</t>
-  </si>
-  <si>
-    <t>GUIO_warning002, Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.</t>
-  </si>
-  <si>
-    <t>GUIO_warning003, Selected net file format:</t>
-  </si>
-  <si>
-    <t>GUIO_warning003title, Invalid out net file format</t>
-  </si>
-  <si>
-    <t>GUIO_button001, Load invariants</t>
-  </si>
-  <si>
-    <t>GUIO_button001b, Select invariant file</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv001, Net saving as .pnt file failed. There may be problems with file:</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv002,  or there is no network yet.</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv003, Missing net or file</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv004, INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv005, Please wait</t>
-  </si>
-  <si>
-    <t>LOGentry00016, Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.</t>
-  </si>
-  <si>
-    <t>LOGentry00017, INAwin32.exe process finished. Reading results...</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv006, I/O operation: activating INAwin32.exe failed.</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv007, No invariants file - using INAwin32.exe failed.</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv009, No, thanks</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv010, Do you want to save generated .inv file?</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv011, Save the invariants?</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv012, Select invariants target path</t>
-  </si>
-  <si>
-    <t>LOGentry00018, Invariants generation successful.</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv013, Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv014, Missing files</t>
-  </si>
-  <si>
-    <t>GUIO_invariants001, Invariants generation already in progress.</t>
-  </si>
-  <si>
-    <t>GUIO_invariants002, Generator working</t>
-  </si>
-  <si>
-    <t>GUIO_mct001, Exporting net into CSV file failed.</t>
-  </si>
-  <si>
-    <t>GUIO_mct002, Write error</t>
-  </si>
-  <si>
-    <t>LOGentry00019, Starting MCT generator.</t>
-  </si>
-  <si>
-    <t>GUIO_mct003, Select MCT target path</t>
-  </si>
-  <si>
-    <t>GUIO_mct004, MCT file created</t>
-  </si>
-  <si>
-    <t>GUIO_mct005, Operation successful.</t>
-  </si>
-  <si>
-    <t>LOGentry00020, MCT file saved. Path:</t>
-  </si>
-  <si>
-    <t>GUIO_mct006, MCT file created</t>
-  </si>
-  <si>
-    <t>GUIO_mct007, File operation failed when creating MCT sets.</t>
-  </si>
-  <si>
-    <t>GUIO_mct008, MCT generator error</t>
-  </si>
-  <si>
-    <t>LOGentry00021, MCT generator failed:</t>
-  </si>
-  <si>
-    <t>LOGentry00022, Warning: unable to check if given clusters number (</t>
-  </si>
-  <si>
-    <t>LOGentry00023, ) exceeds invariants number. If so, the procedure may fail.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters001, Select CH metric directory</t>
-  </si>
-  <si>
-    <t>GUIO_clusters002, Use temporary directory</t>
-  </si>
-  <si>
-    <t>GUIO_clusters003, Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters004, Directory selection</t>
-  </si>
-  <si>
-    <t>GUIO_clusters005, Select CH metric dir</t>
-  </si>
-  <si>
-    <t>GUIO_clusters006, Target directory for CH metric results</t>
-  </si>
-  <si>
-    <t>LOGentry00024, CH metric files will be put into the</t>
-  </si>
-  <si>
-    <t>LOGentry00025, Cluster files will be put into the</t>
-  </si>
-  <si>
-    <t>LOGentry00026, Cluster files will be put into the</t>
-  </si>
-  <si>
-    <t>LOGentry00027, Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters007, CH metric computation failed for</t>
-  </si>
-  <si>
-    <t>GUIO_clusters008,  clusters.\nPath:</t>
-  </si>
-  <si>
-    <t>LOGentry00028, Warning: unable to check if a given number of clusters (</t>
-  </si>
-  <si>
-    <t>LOGentry00029, ) exceeds invariants number. If so, the procedure may fail.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters009, Select cluster directory</t>
-  </si>
-  <si>
-    <t>GUIO_clusters009b, Use temporary directory</t>
-  </si>
-  <si>
-    <t>GUIO_clusters009c, Cancel operation</t>
-  </si>
-  <si>
-    <t>GUIO_clusters010, Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters011, Select cluster dir</t>
-  </si>
-  <si>
-    <t>GUIO_clusters012, Target directory for cluster results</t>
-  </si>
-  <si>
-    <t>LOGentry00030, Cluster files will be put into the</t>
-  </si>
-  <si>
-    <t>GUIO_clusters013, Clustering generation failed for</t>
-  </si>
-  <si>
-    <t>GUIO_clusters014,  clusters.\nPath:</t>
-  </si>
-  <si>
-    <t>GUIO_csv001, CSV invariants file (.csv)</t>
-  </si>
-  <si>
-    <t>GUIO_csv002, Select CSV</t>
-  </si>
-  <si>
-    <t>GUIO_csv003, Select CSV file</t>
-  </si>
-  <si>
-    <t>GUIO_csv004, Select invariants file manually</t>
-  </si>
-  <si>
-    <t>GUIO_csv004b, Use computed invariants</t>
-  </si>
-  <si>
-    <t>LOGentry00031, Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).</t>
-  </si>
-  <si>
-    <t>GUIO_inv001, Invariants source</t>
-  </si>
-  <si>
-    <t>GUIO_inv002, Exporting invariants into CSV file failed.\nCluster procedure cannot begin.</t>
-  </si>
-  <si>
-    <t>GUIO_inv003, CSV export error</t>
-  </si>
-  <si>
-    <t>GUIO_clusters015, Manually locate file</t>
-  </si>
-  <si>
-    <t>GUIO_clusters015b, Cancel procedure</t>
-  </si>
-  <si>
-    <t>GUIO_clusters016, No input.csv file in:\n</t>
-  </si>
-  <si>
-    <t>GUIO_clusters017, \nDo you want to select location manually?</t>
-  </si>
-  <si>
-    <t>GUIO_clusters018, No CSV invariants file</t>
-  </si>
-  <si>
-    <t>GUIO_clusters019, Select CSV invariants file</t>
-  </si>
-  <si>
-    <t>GUIO_clusters020, CSV invariants file:</t>
-  </si>
-  <si>
-    <t>GUIO_clusters021,  located. Starting single clustering procedure.</t>
-  </si>
-  <si>
-    <t>GUIO_clusters022, Starting MCT generator for file:</t>
-  </si>
-  <si>
-    <t>GUIO_clusters023, MCT generation (file) failed for:</t>
-  </si>
-  <si>
-    <t>LOGentry00032, R function failed for parameters:</t>
-  </si>
-  <si>
-    <t>LOGentry00032b, File name:</t>
-  </si>
-  <si>
-    <t>LOGentry00032c, Output dir:</t>
-  </si>
-  <si>
-    <t>LOGentry00032d, Algorithm:</t>
-  </si>
-  <si>
-    <t>LOGentry00032e, Metric:</t>
-  </si>
-  <si>
-    <t>LOGentry00032f, No. of clusters:</t>
-  </si>
-  <si>
-    <t>GUIO_clusters024, Clustering failed. Check log.</t>
-  </si>
-  <si>
-    <t>LOGentry00033, Unable to update simulator fields: (XTPN=</t>
-  </si>
-  <si>
-    <t>LOGentry00033b, ; stepsValue=</t>
-  </si>
-  <si>
-    <t>LOGentry00033c, ; stepsValue=</t>
-  </si>
-  <si>
-    <t>GUIO_fix001, Invisible arc: p</t>
-  </si>
-  <si>
-    <t>GUIO_fix002, . Removing...</t>
-  </si>
-  <si>
-    <t>GUIO_fix003, Invisible arc: t</t>
-  </si>
-  <si>
-    <t>GUIO_fix004, Arc list:</t>
-  </si>
-  <si>
-    <t>GUIO_fix005, , processed arcs:</t>
-  </si>
-  <si>
-    <t>GUIO_fix006, , removed ghost-arcs:</t>
-  </si>
-  <si>
-    <t>save, Save</t>
-  </si>
-  <si>
-    <t>select, Select</t>
-  </si>
-  <si>
-    <t>error, Error</t>
-  </si>
-  <si>
-    <t>critError, Critical error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIO_warning003b, Net real type: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIO_warning003c, Suggested file format: </t>
-  </si>
-  <si>
-    <t>GUIO_warning003d, Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n</t>
-  </si>
-  <si>
-    <t>GUIO_inaInv008, Save .inv file</t>
-  </si>
 </sst>
 </file>
 
@@ -513,7 +108,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="238"/>
@@ -883,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541A0FC-B179-4723-94EA-B1D336EB6EFC}">
   <dimension ref="A2:D5254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -895,672 +490,592 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="2"/>
+      <c r="B2" t="e">
         <f>_xlfn.TEXTBEFORE(A2,",")</f>
-        <v>GUIM_toolboxTabName</v>
-      </c>
-      <c r="C2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
         <f>_xlfn.TEXTAFTER(A2,", ")</f>
-        <v>Toolbox</v>
-      </c>
-      <c r="D2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
         <f>_xlfn.CONCAT("defaultEnglish.put(","""",B2,""",""",C2,""");")</f>
-        <v>defaultEnglish.put("GUIM_toolboxTabName","Toolbox");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="A3" s="2"/>
+      <c r="B3" t="e">
         <f t="shared" ref="B3:B66" si="0">_xlfn.TEXTBEFORE(A3,",")</f>
-        <v>GUIM_simulatorTabName</v>
-      </c>
-      <c r="C3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
         <f t="shared" ref="C3:C66" si="1">_xlfn.TEXTAFTER(A3,", ")</f>
-        <v>Simulator</v>
-      </c>
-      <c r="D3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="2">_xlfn.CONCAT("defaultEnglish.put(","""",B3,""",""",C3,""");")</f>
-        <v>defaultEnglish.put("GUIM_simulatorTabName","Simulator");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="A4" s="2"/>
+      <c r="B4" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_quicksimTabName</v>
-      </c>
-      <c r="C4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="e">
         <f t="shared" si="1"/>
-        <v>QuickSim</v>
-      </c>
-      <c r="D4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_quicksimTabName","QuickSim");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_tinvTabName</v>
-      </c>
-      <c r="C5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
         <f t="shared" si="1"/>
-        <v>T-inv</v>
-      </c>
-      <c r="D5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_tinvTabName","T-inv");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_pinvTabName</v>
-      </c>
-      <c r="C6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
         <f t="shared" si="1"/>
-        <v>P-inv</v>
-      </c>
-      <c r="D6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_pinvTabName","P-inv");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="A7" s="2"/>
+      <c r="B7" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_mctTabName</v>
-      </c>
-      <c r="C7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
         <f t="shared" si="1"/>
-        <v>MCT</v>
-      </c>
-      <c r="D7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_mctTabName","MCT");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
+      <c r="A8" s="2"/>
+      <c r="B8" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_mcsTabName</v>
-      </c>
-      <c r="C8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
         <f t="shared" si="1"/>
-        <v>MCS</v>
-      </c>
-      <c r="D8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_mcsTabName","MCS");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
+      <c r="A9" s="2"/>
+      <c r="B9" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_KnockoutTabName</v>
-      </c>
-      <c r="C9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
         <f t="shared" si="1"/>
-        <v>Knockout</v>
-      </c>
-      <c r="D9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_KnockoutTabName","Knockout");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
+      <c r="A10" s="2"/>
+      <c r="B10" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_fixTabName</v>
-      </c>
-      <c r="C10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
         <f t="shared" si="1"/>
-        <v>NetFix</v>
-      </c>
-      <c r="D10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_fixTabName","NetFix");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
+      <c r="A11" s="2"/>
+      <c r="B11" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_clustersTabName</v>
-      </c>
-      <c r="C11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
         <f t="shared" si="1"/>
-        <v>Clusters</v>
-      </c>
-      <c r="D11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_clustersTabName","Clusters");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="str">
+      <c r="A12" s="2"/>
+      <c r="B12" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_closingQuestion001</v>
-      </c>
-      <c r="C12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
         <f t="shared" si="1"/>
-        <v>Net or its data have been changed since last save. Exit, save&amp;exit or do not exit now?</v>
-      </c>
-      <c r="D12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_closingQuestion001","Net or its data have been changed since last save. Exit, save&amp;exit or do not exit now?");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="str">
+      <c r="A13" s="2"/>
+      <c r="B13" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_closeWindowTitle001</v>
-      </c>
-      <c r="C13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
         <f t="shared" si="1"/>
-        <v>Project has been modified</v>
-      </c>
-      <c r="D13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_closeWindowTitle001","Project has been modified");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="str">
+      <c r="A14" s="2"/>
+      <c r="B14" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00001</v>
-      </c>
-      <c r="C14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C14" t="e">
         <f t="shared" si="1"/>
-        <v>Exiting program</v>
-      </c>
-      <c r="D14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00001","Exiting program");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="str">
+      <c r="A15" s="2"/>
+      <c r="B15" t="e">
         <f t="shared" si="0"/>
-        <v>GUIM_closingQuestion002</v>
-      </c>
-      <c r="C15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
         <f t="shared" si="1"/>
-        <v>Are you sure you want to close the program?</v>
-      </c>
-      <c r="D15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIM_closingQuestion002","Are you sure you want to close the program?");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="str">
+      <c r="A16" s="2"/>
+      <c r="B16" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00002</v>
-      </c>
-      <c r="C16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
         <f t="shared" si="1"/>
-        <v>Tools directory does not exist:</v>
-      </c>
-      <c r="D16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00002","Tools directory does not exist:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="str">
+      <c r="A17" s="2"/>
+      <c r="B17" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00003</v>
-      </c>
-      <c r="C17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
         <f t="shared" si="1"/>
-        <v>File COMMAND.ina does not exist or is corrupted.</v>
-      </c>
-      <c r="D17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00003","File COMMAND.ina does not exist or is corrupted.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="A18" s="2"/>
+      <c r="B18" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_inaProblem001</v>
-      </c>
-      <c r="C18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
         <f t="shared" si="1"/>
-        <v>Unable to recreate COMMAND.ina.</v>
-      </c>
-      <c r="D18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_inaProblem001","Unable to recreate COMMAND.ina.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="A19" s="2"/>
+      <c r="B19" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_inaProblem002</v>
-      </c>
-      <c r="C19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
         <f t="shared" si="1"/>
-        <v>Error - COMMAND.ina</v>
-      </c>
-      <c r="D19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_inaProblem002","Error - COMMAND.ina");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="A20" s="2"/>
+      <c r="B20" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00004</v>
-      </c>
-      <c r="C20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" si="1"/>
-        <v>Unable to recreate COMMAND.ina. Invariants generator will work in Holmes mode only.</v>
-      </c>
-      <c r="D20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00004","Unable to recreate COMMAND.ina. Invariants generator will work in Holmes mode only.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="A21" s="2"/>
+      <c r="B21" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00005</v>
-      </c>
-      <c r="C21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" si="1"/>
-        <v>File COMMANDp.ina does not exist or is corrupted.</v>
-      </c>
-      <c r="D21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00005","File COMMANDp.ina does not exist or is corrupted.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="A22" s="2"/>
+      <c r="B22" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_inaProblem003</v>
-      </c>
-      <c r="C22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
         <f t="shared" si="1"/>
-        <v>Error - COMMANDp.ina</v>
-      </c>
-      <c r="D22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_inaProblem003","Error - COMMANDp.ina");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="A23" s="2"/>
+      <c r="B23" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00006</v>
-      </c>
-      <c r="C23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
         <f t="shared" si="1"/>
-        <v>File ina.bat did not exist or was corrupted:</v>
-      </c>
-      <c r="D23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00006","File ina.bat did not exist or was corrupted:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="str">
+      <c r="A24" s="2"/>
+      <c r="B24" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_inaProblem004</v>
-      </c>
-      <c r="C24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
         <f t="shared" si="1"/>
-        <v>Unable to recreate ina.bat. This is a critical error, possible write protection issues in program directory. Invariants generation using INAwin32 will most likely fail.</v>
-      </c>
-      <c r="D24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_inaProblem004","Unable to recreate ina.bat. This is a critical error, possible write protection issues in program directory. Invariants generation using INAwin32 will most likely fail.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="A25" s="2"/>
+      <c r="B25" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_inaProblem005</v>
-      </c>
-      <c r="C25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
         <f t="shared" si="1"/>
-        <v>Critical error - writing</v>
-      </c>
-      <c r="D25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_inaProblem005","Critical error - writing");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="A26" s="2"/>
+      <c r="B26" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00007</v>
-      </c>
-      <c r="C26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
         <f t="shared" si="1"/>
-        <v>Critical error, unable to recreate ina.bat file. Invariants generator will not work.</v>
-      </c>
-      <c r="D26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00007","Critical error, unable to recreate ina.bat file. Invariants generator will not work.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="str">
+      <c r="A27" s="2"/>
+      <c r="B27" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00008R</v>
-      </c>
-      <c r="C27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
         <f t="shared" si="1"/>
-        <v>Invalid path (</v>
-      </c>
-      <c r="D27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00008R","Invalid path (");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="str">
+      <c r="A28" s="2"/>
+      <c r="B28" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00009R</v>
-      </c>
-      <c r="C28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
         <f t="shared" si="1"/>
-        <v>) to Rscript executable file.</v>
-      </c>
-      <c r="D28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00009R",") to Rscript executable file.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="A29" s="2"/>
+      <c r="B29" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptProblem001</v>
-      </c>
-      <c r="C29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
         <f t="shared" si="1"/>
-        <v>Manually locate Rscript.exe</v>
-      </c>
-      <c r="D29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptProblem001","Manually locate Rscript.exe");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="A30" s="2"/>
+      <c r="B30" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptProblem002</v>
-      </c>
-      <c r="C30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
         <f t="shared" si="1"/>
-        <v>R not installed</v>
-      </c>
-      <c r="D30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptProblem002","R not installed");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="str">
+      <c r="A31" s="2"/>
+      <c r="B31" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptProblem003</v>
-      </c>
-      <c r="C31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
         <f t="shared" si="1"/>
-        <v>Rscript.exe missing in path</v>
-      </c>
-      <c r="D31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptProblem003","Rscript.exe missing in path");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="A32" s="2"/>
+      <c r="B32" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptProblem004</v>
-      </c>
-      <c r="C32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
         <f t="shared" si="1"/>
-        <v>Missing executable</v>
-      </c>
-      <c r="D32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptProblem004","Missing executable");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="A33" s="2"/>
+      <c r="B33" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptButton001</v>
-      </c>
-      <c r="C33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
         <f t="shared" si="1"/>
-        <v>Select Rscript.exe</v>
-      </c>
-      <c r="D33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptButton001","Select Rscript.exe");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="A34" s="2"/>
+      <c r="B34" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_RscriptButton002tip</v>
-      </c>
-      <c r="C34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
         <f t="shared" si="1"/>
-        <v>Please select Rscript exe, usually located in R/Rx.x.x/bin directory.</v>
-      </c>
-      <c r="D34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_RscriptButton002tip","Please select Rscript exe, usually located in R/Rx.x.x/bin directory.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="str">
+      <c r="A35" s="2"/>
+      <c r="B35" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00010R</v>
-      </c>
-      <c r="C35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
         <f t="shared" si="1"/>
-        <v>Rscript executable file inaccessible. Some features (clusters operations) will be disabled.</v>
-      </c>
-      <c r="D35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00010R","Rscript executable file inaccessible. Some features (clusters operations) will be disabled.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="A36" s="2"/>
+      <c r="B36" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00011R</v>
-      </c>
-      <c r="C36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
         <f t="shared" si="1"/>
-        <v>Rscript.exe manually located in</v>
-      </c>
-      <c r="D36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00011R","Rscript.exe manually located in");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="A37" s="2"/>
+      <c r="B37" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00012R</v>
-      </c>
-      <c r="C37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
         <f t="shared" si="1"/>
-        <v>. Settings file updated.</v>
-      </c>
-      <c r="D37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00012R",". Settings file updated.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="str">
+      <c r="A38" s="2"/>
+      <c r="B38" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00013R</v>
-      </c>
-      <c r="C38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
         <f t="shared" si="1"/>
-        <v>Rscript.exe location unknown. Clustering procedures will not work.</v>
-      </c>
-      <c r="D38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00013R","Rscript.exe location unknown. Clustering procedures will not work.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="str">
+      <c r="A39" s="2"/>
+      <c r="B39" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_simulator0001warn</v>
-      </c>
-      <c r="C39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
         <f t="shared" si="1"/>
-        <v>Warning: simulator active. Cannot proceed until manually stopped.</v>
-      </c>
-      <c r="D39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_simulator0001warn","Warning: simulator active. Cannot proceed until manually stopped.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="str">
+      <c r="A40" s="2"/>
+      <c r="B40" t="e">
         <f t="shared" si="0"/>
-        <v>GUI_simulator0002warn</v>
-      </c>
-      <c r="C40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
         <f t="shared" si="1"/>
-        <v>Warning: XTPN simulator active. Cannot proceed until manually stopped.</v>
-      </c>
-      <c r="D40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUI_simulator0002warn","Warning: XTPN simulator active. Cannot proceed until manually stopped.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1575,1757 +1090,1552 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="str">
+      <c r="A42" s="2"/>
+      <c r="B42" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_openProject001</v>
-      </c>
-      <c r="C42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
         <f t="shared" si="1"/>
-        <v>Reading project file succcessful.</v>
-      </c>
-      <c r="D42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_openProject001","Reading project file succcessful.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="str">
+      <c r="A43" s="2"/>
+      <c r="B43" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00014</v>
-      </c>
-      <c r="C43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
         <f t="shared" si="1"/>
-        <v>Unable to extract net as image. Cannot save to file:</v>
-      </c>
-      <c r="D43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00014","Unable to extract net as image. Cannot save to file:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="str">
+      <c r="A44" s="2"/>
+      <c r="B44" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_messageBox001</v>
-      </c>
-      <c r="C44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
         <f t="shared" si="1"/>
-        <v>File choosing error. Cannot proceed.</v>
-      </c>
-      <c r="D44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_messageBox001","File choosing error. Cannot proceed.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="str">
+      <c r="A45" s="2"/>
+      <c r="B45" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00015</v>
-      </c>
-      <c r="C45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
         <f t="shared" si="1"/>
-        <v>File choosing error. No extension:</v>
-      </c>
-      <c r="D45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00015","File choosing error. No extension:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="str">
+      <c r="A46" s="2"/>
+      <c r="B46" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning001</v>
-      </c>
-      <c r="C46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
         <f t="shared" si="1"/>
-        <v>\nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n</v>
-      </c>
-      <c r="D46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning001","\nWarning: hierarchical net structure detected. Using Holmes project is strongly advised.\nOther save format will most probably fail.\n");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="str">
+      <c r="A47" s="2"/>
+      <c r="B47" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning002</v>
-      </c>
-      <c r="C47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
         <f t="shared" si="1"/>
-        <v>Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.</v>
-      </c>
-      <c r="D47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning002","Warning. There has been a problem detecting type of the Petri net.\nHolmes project file as save is highly recommended.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="str">
+      <c r="A48" s="2"/>
+      <c r="B48" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning003</v>
-      </c>
-      <c r="C48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
         <f t="shared" si="1"/>
-        <v>Selected net file format:</v>
-      </c>
-      <c r="D48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning003","Selected net file format:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" t="str">
+      <c r="A49" s="2"/>
+      <c r="B49" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning003b</v>
-      </c>
-      <c r="C49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Net real type: </v>
-      </c>
-      <c r="D49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning003b","Net real type: ");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" t="str">
+      <c r="A50" s="2"/>
+      <c r="B50" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning003c</v>
-      </c>
-      <c r="C50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Suggested file format: </v>
-      </c>
-      <c r="D50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning003c","Suggested file format: ");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" t="str">
+      <c r="A51" s="2"/>
+      <c r="B51" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning003d</v>
-      </c>
-      <c r="C51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
         <f t="shared" si="1"/>
-        <v>Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n</v>
-      </c>
-      <c r="D51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning003d","Selected format will not contain all features of the current Petri Net. Resulting file\nwill contain reduced net or will be corrupted.\n");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="str">
+      <c r="A52" s="2"/>
+      <c r="B52" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_warning003title</v>
-      </c>
-      <c r="C52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
         <f t="shared" si="1"/>
-        <v>Invalid out net file format</v>
-      </c>
-      <c r="D52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_warning003title","Invalid out net file format");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="str">
+      <c r="A53" s="2"/>
+      <c r="B53" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_button001</v>
-      </c>
-      <c r="C53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
         <f t="shared" si="1"/>
-        <v>Load invariants</v>
-      </c>
-      <c r="D53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_button001","Load invariants");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="str">
+      <c r="A54" s="2"/>
+      <c r="B54" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_button001b</v>
-      </c>
-      <c r="C54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="e">
         <f t="shared" si="1"/>
-        <v>Select invariant file</v>
-      </c>
-      <c r="D54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D54" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_button001b","Select invariant file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="str">
+      <c r="A55" s="2"/>
+      <c r="B55" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv001</v>
-      </c>
-      <c r="C55" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="e">
         <f t="shared" si="1"/>
-        <v>Net saving as .pnt file failed. There may be problems with file:</v>
-      </c>
-      <c r="D55" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D55" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv001","Net saving as .pnt file failed. There may be problems with file:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="str">
+      <c r="A56" s="2"/>
+      <c r="B56" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv002</v>
-      </c>
-      <c r="C56" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="e">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> or there is no network yet.</v>
-      </c>
-      <c r="D56" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D56" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv002"," or there is no network yet.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="str">
+      <c r="A57" s="2"/>
+      <c r="B57" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv003</v>
-      </c>
-      <c r="C57" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="e">
         <f t="shared" si="1"/>
-        <v>Missing net or file</v>
-      </c>
-      <c r="D57" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D57" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv003","Missing net or file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="str">
+      <c r="A58" s="2"/>
+      <c r="B58" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv004</v>
-      </c>
-      <c r="C58" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="e">
         <f t="shared" si="1"/>
-        <v>INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.</v>
-      </c>
-      <c r="D58" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D58" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv004","INAwin32.exe will now start. This may take a while. Click OK and please wait.\nWhen console shows in, please type Y, then N after invariants are computed.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="str">
+      <c r="A59" s="2"/>
+      <c r="B59" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv005</v>
-      </c>
-      <c r="C59" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="e">
         <f t="shared" si="1"/>
-        <v>Please wait</v>
-      </c>
-      <c r="D59" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D59" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv005","Please wait");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="str">
+      <c r="A60" s="2"/>
+      <c r="B60" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00016</v>
-      </c>
-      <c r="C60" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="e">
         <f t="shared" si="1"/>
-        <v>Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.</v>
-      </c>
-      <c r="D60" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D60" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00016","Activating INAwin32.exe. Please wait, this may take a few seconds due to OS delays.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="str">
+      <c r="A61" s="2"/>
+      <c r="B61" t="e">
         <f t="shared" si="0"/>
-        <v>LOGentry00017</v>
-      </c>
-      <c r="C61" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="e">
         <f t="shared" si="1"/>
-        <v>INAwin32.exe process finished. Reading results...</v>
-      </c>
-      <c r="D61" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D61" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("LOGentry00017","INAwin32.exe process finished. Reading results...");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="str">
+      <c r="A62" s="2"/>
+      <c r="B62" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv006</v>
-      </c>
-      <c r="C62" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="e">
         <f t="shared" si="1"/>
-        <v>I/O operation: activating INAwin32.exe failed.</v>
-      </c>
-      <c r="D62" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D62" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv006","I/O operation: activating INAwin32.exe failed.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="str">
+      <c r="A63" s="2"/>
+      <c r="B63" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv007</v>
-      </c>
-      <c r="C63" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="e">
         <f t="shared" si="1"/>
-        <v>No invariants file - using INAwin32.exe failed.</v>
-      </c>
-      <c r="D63" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D63" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv007","No invariants file - using INAwin32.exe failed.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" t="str">
+      <c r="A64" s="2"/>
+      <c r="B64" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv008</v>
-      </c>
-      <c r="C64" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
         <f t="shared" si="1"/>
-        <v>Save .inv file</v>
-      </c>
-      <c r="D64" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D64" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv008","Save .inv file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="str">
+      <c r="A65" s="1"/>
+      <c r="B65" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv009</v>
-      </c>
-      <c r="C65" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
         <f t="shared" si="1"/>
-        <v>No, thanks</v>
-      </c>
-      <c r="D65" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D65" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv009","No, thanks");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="str">
+      <c r="A66" s="2"/>
+      <c r="B66" t="e">
         <f t="shared" si="0"/>
-        <v>GUIO_inaInv010</v>
-      </c>
-      <c r="C66" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
         <f t="shared" si="1"/>
-        <v>Do you want to save generated .inv file?</v>
-      </c>
-      <c r="D66" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D66" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("GUIO_inaInv010","Do you want to save generated .inv file?");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="str">
+      <c r="A67" s="2"/>
+      <c r="B67" t="e">
         <f t="shared" ref="B67:B130" si="3">_xlfn.TEXTBEFORE(A67,",")</f>
-        <v>GUIO_inaInv011</v>
-      </c>
-      <c r="C67" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="e">
         <f t="shared" ref="C67:C130" si="4">_xlfn.TEXTAFTER(A67,", ")</f>
-        <v>Save the invariants?</v>
-      </c>
-      <c r="D67" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D67" t="e">
         <f t="shared" ref="D67:D130" si="5">_xlfn.CONCAT("defaultEnglish.put(","""",B67,""",""",C67,""");")</f>
-        <v>defaultEnglish.put("GUIO_inaInv011","Save the invariants?");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="str">
+      <c r="A68" s="1"/>
+      <c r="B68" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inaInv012</v>
-      </c>
-      <c r="C68" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="e">
         <f t="shared" si="4"/>
-        <v>Select invariants target path</v>
-      </c>
-      <c r="D68" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D68" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inaInv012","Select invariants target path");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="str">
+      <c r="A69" s="2"/>
+      <c r="B69" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00018</v>
-      </c>
-      <c r="C69" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
         <f t="shared" si="4"/>
-        <v>Invariants generation successful.</v>
-      </c>
-      <c r="D69" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D69" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00018","Invariants generation successful.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="str">
+      <c r="A70" s="2"/>
+      <c r="B70" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inaInv013</v>
-      </c>
-      <c r="C70" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
         <f t="shared" si="4"/>
-        <v>Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina</v>
-      </c>
-      <c r="D70" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D70" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inaInv013","Missing executables in the tools directory. Required: INAwin32.exe, ina.bat and COMMAND.ina");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="str">
+      <c r="A71" s="2"/>
+      <c r="B71" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inaInv014</v>
-      </c>
-      <c r="C71" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="e">
         <f t="shared" si="4"/>
-        <v>Missing files</v>
-      </c>
-      <c r="D71" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D71" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inaInv014","Missing files");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="str">
+      <c r="A72" s="2"/>
+      <c r="B72" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_invariants001</v>
-      </c>
-      <c r="C72" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="e">
         <f t="shared" si="4"/>
-        <v>Invariants generation already in progress.</v>
-      </c>
-      <c r="D72" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D72" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_invariants001","Invariants generation already in progress.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="str">
+      <c r="A73" s="2"/>
+      <c r="B73" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_invariants002</v>
-      </c>
-      <c r="C73" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="e">
         <f t="shared" si="4"/>
-        <v>Generator working</v>
-      </c>
-      <c r="D73" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D73" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_invariants002","Generator working");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="str">
+      <c r="A74" s="2"/>
+      <c r="B74" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct001</v>
-      </c>
-      <c r="C74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="e">
         <f t="shared" si="4"/>
-        <v>Exporting net into CSV file failed.</v>
-      </c>
-      <c r="D74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D74" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct001","Exporting net into CSV file failed.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="str">
+      <c r="A75" s="2"/>
+      <c r="B75" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct002</v>
-      </c>
-      <c r="C75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="e">
         <f t="shared" si="4"/>
-        <v>Write error</v>
-      </c>
-      <c r="D75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D75" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct002","Write error");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="str">
+      <c r="A76" s="2"/>
+      <c r="B76" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00019</v>
-      </c>
-      <c r="C76" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="e">
         <f t="shared" si="4"/>
-        <v>Starting MCT generator.</v>
-      </c>
-      <c r="D76" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D76" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00019","Starting MCT generator.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="str">
+      <c r="A77" s="2"/>
+      <c r="B77" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct003</v>
-      </c>
-      <c r="C77" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C77" t="e">
         <f t="shared" si="4"/>
-        <v>Select MCT target path</v>
-      </c>
-      <c r="D77" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D77" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct003","Select MCT target path");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="str">
+      <c r="A78" s="2"/>
+      <c r="B78" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct004</v>
-      </c>
-      <c r="C78" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C78" t="e">
         <f t="shared" si="4"/>
-        <v>MCT file created</v>
-      </c>
-      <c r="D78" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D78" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct004","MCT file created");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="str">
+      <c r="A79" s="2"/>
+      <c r="B79" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct005</v>
-      </c>
-      <c r="C79" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C79" t="e">
         <f t="shared" si="4"/>
-        <v>Operation successful.</v>
-      </c>
-      <c r="D79" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D79" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct005","Operation successful.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="str">
+      <c r="A80" s="2"/>
+      <c r="B80" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00020</v>
-      </c>
-      <c r="C80" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C80" t="e">
         <f t="shared" si="4"/>
-        <v>MCT file saved. Path:</v>
-      </c>
-      <c r="D80" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D80" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00020","MCT file saved. Path:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="str">
+      <c r="A81" s="2"/>
+      <c r="B81" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct006</v>
-      </c>
-      <c r="C81" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C81" t="e">
         <f t="shared" si="4"/>
-        <v>MCT file created</v>
-      </c>
-      <c r="D81" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D81" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct006","MCT file created");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="str">
+      <c r="A82" s="2"/>
+      <c r="B82" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct007</v>
-      </c>
-      <c r="C82" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="e">
         <f t="shared" si="4"/>
-        <v>File operation failed when creating MCT sets.</v>
-      </c>
-      <c r="D82" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D82" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct007","File operation failed when creating MCT sets.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="str">
+      <c r="A83" s="2"/>
+      <c r="B83" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_mct008</v>
-      </c>
-      <c r="C83" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="e">
         <f t="shared" si="4"/>
-        <v>MCT generator error</v>
-      </c>
-      <c r="D83" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D83" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_mct008","MCT generator error");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="str">
+      <c r="A84" s="2"/>
+      <c r="B84" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00021</v>
-      </c>
-      <c r="C84" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="e">
         <f t="shared" si="4"/>
-        <v>MCT generator failed:</v>
-      </c>
-      <c r="D84" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00021","MCT generator failed:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="str">
+      <c r="A85" s="2"/>
+      <c r="B85" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00022</v>
-      </c>
-      <c r="C85" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="e">
         <f t="shared" si="4"/>
-        <v>Warning: unable to check if given clusters number (</v>
-      </c>
-      <c r="D85" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D85" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00022","Warning: unable to check if given clusters number (");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="str">
+      <c r="A86" s="2"/>
+      <c r="B86" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00023</v>
-      </c>
-      <c r="C86" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="e">
         <f t="shared" si="4"/>
-        <v>) exceeds invariants number. If so, the procedure may fail.</v>
-      </c>
-      <c r="D86" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D86" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00023",") exceeds invariants number. If so, the procedure may fail.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="str">
+      <c r="A87" s="2"/>
+      <c r="B87" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters001</v>
-      </c>
-      <c r="C87" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="e">
         <f t="shared" si="4"/>
-        <v>Select CH metric directory</v>
-      </c>
-      <c r="D87" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D87" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters001","Select CH metric directory");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="str">
+      <c r="A88" s="2"/>
+      <c r="B88" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters002</v>
-      </c>
-      <c r="C88" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="e">
         <f t="shared" si="4"/>
-        <v>Use temporary directory</v>
-      </c>
-      <c r="D88" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters002","Use temporary directory");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="str">
+      <c r="A89" s="2"/>
+      <c r="B89" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters003</v>
-      </c>
-      <c r="C89" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="e">
         <f t="shared" si="4"/>
-        <v>Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.</v>
-      </c>
-      <c r="D89" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D89" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters003","Multiple CH metric files can we written into default temporary directory (inadvised) or into\nthe selected one.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="str">
+      <c r="A90" s="2"/>
+      <c r="B90" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters004</v>
-      </c>
-      <c r="C90" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="e">
         <f t="shared" si="4"/>
-        <v>Directory selection</v>
-      </c>
-      <c r="D90" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters004","Directory selection");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="str">
+      <c r="A91" s="2"/>
+      <c r="B91" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters005</v>
-      </c>
-      <c r="C91" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="e">
         <f t="shared" si="4"/>
-        <v>Select CH metric dir</v>
-      </c>
-      <c r="D91" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters005","Select CH metric dir");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="str">
+      <c r="A92" s="2"/>
+      <c r="B92" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters006</v>
-      </c>
-      <c r="C92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="e">
         <f t="shared" si="4"/>
-        <v>Target directory for CH metric results</v>
-      </c>
-      <c r="D92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D92" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters006","Target directory for CH metric results");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="str">
+      <c r="A93" s="2"/>
+      <c r="B93" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00024</v>
-      </c>
-      <c r="C93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="e">
         <f t="shared" si="4"/>
-        <v>CH metric files will be put into the</v>
-      </c>
-      <c r="D93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D93" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00024","CH metric files will be put into the");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="str">
+      <c r="A94" s="2"/>
+      <c r="B94" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00025</v>
-      </c>
-      <c r="C94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="e">
         <f t="shared" si="4"/>
-        <v>Cluster files will be put into the</v>
-      </c>
-      <c r="D94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D94" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00025","Cluster files will be put into the");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="str">
+      <c r="A95" s="2"/>
+      <c r="B95" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00026</v>
-      </c>
-      <c r="C95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="e">
         <f t="shared" si="4"/>
-        <v>Cluster files will be put into the</v>
-      </c>
-      <c r="D95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D95" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00026","Cluster files will be put into the");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="str">
+      <c r="A96" s="2"/>
+      <c r="B96" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00027</v>
-      </c>
-      <c r="C96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="e">
         <f t="shared" si="4"/>
-        <v>Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.</v>
-      </c>
-      <c r="D96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D96" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00027","Warning: Celinski-Harabasz metric computation in 32bit mode for large number of invariants can cause R/OS failure.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="str">
+      <c r="A97" s="2"/>
+      <c r="B97" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters007</v>
-      </c>
-      <c r="C97" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C97" t="e">
         <f t="shared" si="4"/>
-        <v>CH metric computation failed for</v>
-      </c>
-      <c r="D97" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D97" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters007","CH metric computation failed for");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="str">
+      <c r="A98" s="2"/>
+      <c r="B98" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters008</v>
-      </c>
-      <c r="C98" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C98" t="e">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> clusters.\nPath:</v>
-      </c>
-      <c r="D98" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D98" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters008"," clusters.\nPath:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="str">
+      <c r="A99" s="2"/>
+      <c r="B99" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00028</v>
-      </c>
-      <c r="C99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C99" t="e">
         <f t="shared" si="4"/>
-        <v>Warning: unable to check if a given number of clusters (</v>
-      </c>
-      <c r="D99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D99" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00028","Warning: unable to check if a given number of clusters (");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="str">
+      <c r="A100" s="2"/>
+      <c r="B100" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00029</v>
-      </c>
-      <c r="C100" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C100" t="e">
         <f t="shared" si="4"/>
-        <v>) exceeds invariants number. If so, the procedure may fail.</v>
-      </c>
-      <c r="D100" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D100" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00029",") exceeds invariants number. If so, the procedure may fail.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="str">
+      <c r="A101" s="2"/>
+      <c r="B101" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters009</v>
-      </c>
-      <c r="C101" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C101" t="e">
         <f t="shared" si="4"/>
-        <v>Select cluster directory</v>
-      </c>
-      <c r="D101" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D101" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters009","Select cluster directory");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="str">
+      <c r="A102" s="2"/>
+      <c r="B102" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters009b</v>
-      </c>
-      <c r="C102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C102" t="e">
         <f t="shared" si="4"/>
-        <v>Use temporary directory</v>
-      </c>
-      <c r="D102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D102" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters009b","Use temporary directory");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="str">
+      <c r="A103" s="2"/>
+      <c r="B103" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters009c</v>
-      </c>
-      <c r="C103" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C103" t="e">
         <f t="shared" si="4"/>
-        <v>Cancel operation</v>
-      </c>
-      <c r="D103" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D103" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters009c","Cancel operation");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="str">
+      <c r="A104" s="2"/>
+      <c r="B104" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters010</v>
-      </c>
-      <c r="C104" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C104" t="e">
         <f t="shared" si="4"/>
-        <v>Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.</v>
-      </c>
-      <c r="D104" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D104" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters010","Multiple cluster files can we written into default temporary directory (not advised) or into\nthe selected one.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="str">
+      <c r="A105" s="2"/>
+      <c r="B105" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters011</v>
-      </c>
-      <c r="C105" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C105" t="e">
         <f t="shared" si="4"/>
-        <v>Select cluster dir</v>
-      </c>
-      <c r="D105" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D105" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters011","Select cluster dir");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="str">
+      <c r="A106" s="2"/>
+      <c r="B106" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters012</v>
-      </c>
-      <c r="C106" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C106" t="e">
         <f t="shared" si="4"/>
-        <v>Target directory for cluster results</v>
-      </c>
-      <c r="D106" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D106" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters012","Target directory for cluster results");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="str">
+      <c r="A107" s="2"/>
+      <c r="B107" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00030</v>
-      </c>
-      <c r="C107" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C107" t="e">
         <f t="shared" si="4"/>
-        <v>Cluster files will be put into the</v>
-      </c>
-      <c r="D107" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D107" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00030","Cluster files will be put into the");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="str">
+      <c r="A108" s="2"/>
+      <c r="B108" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters013</v>
-      </c>
-      <c r="C108" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C108" t="e">
         <f t="shared" si="4"/>
-        <v>Clustering generation failed for</v>
-      </c>
-      <c r="D108" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D108" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters013","Clustering generation failed for");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="str">
+      <c r="A109" s="2"/>
+      <c r="B109" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters014</v>
-      </c>
-      <c r="C109" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C109" t="e">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> clusters.\nPath:</v>
-      </c>
-      <c r="D109" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D109" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters014"," clusters.\nPath:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="str">
+      <c r="A110" s="2"/>
+      <c r="B110" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_csv001</v>
-      </c>
-      <c r="C110" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C110" t="e">
         <f t="shared" si="4"/>
-        <v>CSV invariants file (.csv)</v>
-      </c>
-      <c r="D110" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D110" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_csv001","CSV invariants file (.csv)");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="str">
+      <c r="A111" s="2"/>
+      <c r="B111" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_csv002</v>
-      </c>
-      <c r="C111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C111" t="e">
         <f t="shared" si="4"/>
-        <v>Select CSV</v>
-      </c>
-      <c r="D111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D111" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_csv002","Select CSV");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="str">
+      <c r="A112" s="2"/>
+      <c r="B112" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_csv003</v>
-      </c>
-      <c r="C112" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C112" t="e">
         <f t="shared" si="4"/>
-        <v>Select CSV file</v>
-      </c>
-      <c r="D112" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D112" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_csv003","Select CSV file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="str">
+      <c r="A113" s="2"/>
+      <c r="B113" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_csv004</v>
-      </c>
-      <c r="C113" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C113" t="e">
         <f t="shared" si="4"/>
-        <v>Select invariants file manually</v>
-      </c>
-      <c r="D113" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_csv004","Select invariants file manually");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="str">
+      <c r="A114" s="2"/>
+      <c r="B114" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_csv004b</v>
-      </c>
-      <c r="C114" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C114" t="e">
         <f t="shared" si="4"/>
-        <v>Use computed invariants</v>
-      </c>
-      <c r="D114" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_csv004b","Use computed invariants");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="str">
+      <c r="A115" s="2"/>
+      <c r="B115" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00031</v>
-      </c>
-      <c r="C115" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C115" t="e">
         <f t="shared" si="4"/>
-        <v>Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).</v>
-      </c>
-      <c r="D115" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00031","Please select invariant file (.CSV) for the clustering manually or use invariants\nfrom the current network (they must be computed/loaded already!).");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="str">
+      <c r="A116" s="2"/>
+      <c r="B116" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inv001</v>
-      </c>
-      <c r="C116" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C116" t="e">
         <f t="shared" si="4"/>
-        <v>Invariants source</v>
-      </c>
-      <c r="D116" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D116" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inv001","Invariants source");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="str">
+      <c r="A117" s="2"/>
+      <c r="B117" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inv002</v>
-      </c>
-      <c r="C117" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="e">
         <f t="shared" si="4"/>
-        <v>Exporting invariants into CSV file failed.\nCluster procedure cannot begin.</v>
-      </c>
-      <c r="D117" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D117" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inv002","Exporting invariants into CSV file failed.\nCluster procedure cannot begin.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="str">
+      <c r="A118" s="2"/>
+      <c r="B118" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_inv003</v>
-      </c>
-      <c r="C118" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="e">
         <f t="shared" si="4"/>
-        <v>CSV export error</v>
-      </c>
-      <c r="D118" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D118" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_inv003","CSV export error");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="str">
+      <c r="A119" s="2"/>
+      <c r="B119" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters015</v>
-      </c>
-      <c r="C119" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="e">
         <f t="shared" si="4"/>
-        <v>Manually locate file</v>
-      </c>
-      <c r="D119" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D119" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters015","Manually locate file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="str">
+      <c r="A120" s="2"/>
+      <c r="B120" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters015b</v>
-      </c>
-      <c r="C120" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="e">
         <f t="shared" si="4"/>
-        <v>Cancel procedure</v>
-      </c>
-      <c r="D120" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D120" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters015b","Cancel procedure");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="str">
+      <c r="A121" s="2"/>
+      <c r="B121" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters016</v>
-      </c>
-      <c r="C121" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C121" t="e">
         <f t="shared" si="4"/>
-        <v>No input.csv file in:\n</v>
-      </c>
-      <c r="D121" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D121" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters016","No input.csv file in:\n");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="str">
+      <c r="A122" s="2"/>
+      <c r="B122" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters017</v>
-      </c>
-      <c r="C122" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C122" t="e">
         <f t="shared" si="4"/>
-        <v>\nDo you want to select location manually?</v>
-      </c>
-      <c r="D122" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D122" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters017","\nDo you want to select location manually?");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="str">
+      <c r="A123" s="2"/>
+      <c r="B123" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters018</v>
-      </c>
-      <c r="C123" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C123" t="e">
         <f t="shared" si="4"/>
-        <v>No CSV invariants file</v>
-      </c>
-      <c r="D123" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D123" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters018","No CSV invariants file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="str">
+      <c r="A124" s="2"/>
+      <c r="B124" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters019</v>
-      </c>
-      <c r="C124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C124" t="e">
         <f t="shared" si="4"/>
-        <v>Select CSV invariants file</v>
-      </c>
-      <c r="D124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D124" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters019","Select CSV invariants file");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="str">
+      <c r="A125" s="2"/>
+      <c r="B125" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters020</v>
-      </c>
-      <c r="C125" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C125" t="e">
         <f t="shared" si="4"/>
-        <v>CSV invariants file:</v>
-      </c>
-      <c r="D125" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D125" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters020","CSV invariants file:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="str">
+      <c r="A126" s="2"/>
+      <c r="B126" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters021</v>
-      </c>
-      <c r="C126" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C126" t="e">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> located. Starting single clustering procedure.</v>
-      </c>
-      <c r="D126" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D126" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters021"," located. Starting single clustering procedure.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="str">
+      <c r="A127" s="2"/>
+      <c r="B127" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters022</v>
-      </c>
-      <c r="C127" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="e">
         <f t="shared" si="4"/>
-        <v>Starting MCT generator for file:</v>
-      </c>
-      <c r="D127" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D127" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters022","Starting MCT generator for file:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="str">
+      <c r="A128" s="2"/>
+      <c r="B128" t="e">
         <f t="shared" si="3"/>
-        <v>GUIO_clusters023</v>
-      </c>
-      <c r="C128" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="e">
         <f t="shared" si="4"/>
-        <v>MCT generation (file) failed for:</v>
-      </c>
-      <c r="D128" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D128" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("GUIO_clusters023","MCT generation (file) failed for:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="str">
+      <c r="A129" s="2"/>
+      <c r="B129" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00032</v>
-      </c>
-      <c r="C129" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="e">
         <f t="shared" si="4"/>
-        <v>R function failed for parameters:</v>
-      </c>
-      <c r="D129" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D129" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00032","R function failed for parameters:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="str">
+      <c r="A130" s="2"/>
+      <c r="B130" t="e">
         <f t="shared" si="3"/>
-        <v>LOGentry00032b</v>
-      </c>
-      <c r="C130" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C130" t="e">
         <f t="shared" si="4"/>
-        <v>File name:</v>
-      </c>
-      <c r="D130" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D130" t="e">
         <f t="shared" si="5"/>
-        <v>defaultEnglish.put("LOGentry00032b","File name:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="str">
+      <c r="A131" s="2"/>
+      <c r="B131" t="e">
         <f t="shared" ref="B131:B194" si="6">_xlfn.TEXTBEFORE(A131,",")</f>
-        <v>LOGentry00032c</v>
-      </c>
-      <c r="C131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C131" t="e">
         <f t="shared" ref="C131:C194" si="7">_xlfn.TEXTAFTER(A131,", ")</f>
-        <v>Output dir:</v>
-      </c>
-      <c r="D131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D131" t="e">
         <f t="shared" ref="D131:D194" si="8">_xlfn.CONCAT("defaultEnglish.put(","""",B131,""",""",C131,""");")</f>
-        <v>defaultEnglish.put("LOGentry00032c","Output dir:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="str">
+      <c r="A132" s="2"/>
+      <c r="B132" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00032d</v>
-      </c>
-      <c r="C132" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C132" t="e">
         <f t="shared" si="7"/>
-        <v>Algorithm:</v>
-      </c>
-      <c r="D132" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D132" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00032d","Algorithm:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="str">
+      <c r="A133" s="2"/>
+      <c r="B133" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00032e</v>
-      </c>
-      <c r="C133" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C133" t="e">
         <f t="shared" si="7"/>
-        <v>Metric:</v>
-      </c>
-      <c r="D133" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D133" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00032e","Metric:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="str">
+      <c r="A134" s="2"/>
+      <c r="B134" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00032f</v>
-      </c>
-      <c r="C134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C134" t="e">
         <f t="shared" si="7"/>
-        <v>No. of clusters:</v>
-      </c>
-      <c r="D134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D134" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00032f","No. of clusters:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="str">
+      <c r="A135" s="2"/>
+      <c r="B135" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_clusters024</v>
-      </c>
-      <c r="C135" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C135" t="e">
         <f t="shared" si="7"/>
-        <v>Clustering failed. Check log.</v>
-      </c>
-      <c r="D135" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D135" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_clusters024","Clustering failed. Check log.");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="str">
+      <c r="A136" s="2"/>
+      <c r="B136" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00033</v>
-      </c>
-      <c r="C136" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C136" t="e">
         <f t="shared" si="7"/>
-        <v>Unable to update simulator fields: (XTPN=</v>
-      </c>
-      <c r="D136" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D136" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00033","Unable to update simulator fields: (XTPN=");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="str">
+      <c r="A137" s="2"/>
+      <c r="B137" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00033b</v>
-      </c>
-      <c r="C137" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C137" t="e">
         <f t="shared" si="7"/>
-        <v>; stepsValue=</v>
-      </c>
-      <c r="D137" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D137" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00033b","; stepsValue=");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="str">
+      <c r="A138" s="2"/>
+      <c r="B138" t="e">
         <f t="shared" si="6"/>
-        <v>LOGentry00033c</v>
-      </c>
-      <c r="C138" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C138" t="e">
         <f t="shared" si="7"/>
-        <v>; stepsValue=</v>
-      </c>
-      <c r="D138" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D138" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("LOGentry00033c","; stepsValue=");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="str">
+      <c r="A139" s="2"/>
+      <c r="B139" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix001</v>
-      </c>
-      <c r="C139" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="e">
         <f t="shared" si="7"/>
-        <v>Invisible arc: p</v>
-      </c>
-      <c r="D139" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D139" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix001","Invisible arc: p");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="str">
+      <c r="A140" s="2"/>
+      <c r="B140" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix002</v>
-      </c>
-      <c r="C140" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C140" t="e">
         <f t="shared" si="7"/>
-        <v>. Removing...</v>
-      </c>
-      <c r="D140" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D140" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix002",". Removing...");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="str">
+      <c r="A141" s="2"/>
+      <c r="B141" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix003</v>
-      </c>
-      <c r="C141" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C141" t="e">
         <f t="shared" si="7"/>
-        <v>Invisible arc: t</v>
-      </c>
-      <c r="D141" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D141" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix003","Invisible arc: t");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="str">
+      <c r="A142" s="2"/>
+      <c r="B142" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix004</v>
-      </c>
-      <c r="C142" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C142" t="e">
         <f t="shared" si="7"/>
-        <v>Arc list:</v>
-      </c>
-      <c r="D142" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D142" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix004","Arc list:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="str">
+      <c r="A143" s="2"/>
+      <c r="B143" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix005</v>
-      </c>
-      <c r="C143" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C143" t="e">
         <f t="shared" si="7"/>
-        <v>, processed arcs:</v>
-      </c>
-      <c r="D143" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D143" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix005",", processed arcs:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="str">
+      <c r="A144" s="2"/>
+      <c r="B144" t="e">
         <f t="shared" si="6"/>
-        <v>GUIO_fix006</v>
-      </c>
-      <c r="C144" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C144" t="e">
         <f t="shared" si="7"/>
-        <v>, removed ghost-arcs:</v>
-      </c>
-      <c r="D144" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D144" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("GUIO_fix006",", removed ghost-arcs:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:4">
+      <c r="A145" s="2"/>
       <c r="B145" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3340,9 +2650,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
+      <c r="A146" s="2"/>
       <c r="B146" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3357,159 +2665,142 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" t="str">
+      <c r="A147" s="2"/>
+      <c r="B147" t="e">
         <f t="shared" si="6"/>
-        <v>exit</v>
-      </c>
-      <c r="C147" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C147" t="e">
         <f t="shared" si="7"/>
-        <v>Exit</v>
-      </c>
-      <c r="D147" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D147" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("exit","Exit");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" t="str">
+      <c r="A148" s="2"/>
+      <c r="B148" t="e">
         <f t="shared" si="6"/>
-        <v>saveAndExit</v>
-      </c>
-      <c r="C148" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C148" t="e">
         <f t="shared" si="7"/>
-        <v>Save and Exit</v>
-      </c>
-      <c r="D148" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D148" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("saveAndExit","Save and Exit");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" t="str">
+      <c r="A149" s="2"/>
+      <c r="B149" t="e">
         <f t="shared" si="6"/>
-        <v>save</v>
-      </c>
-      <c r="C149" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C149" t="e">
         <f t="shared" si="7"/>
-        <v>Save</v>
-      </c>
-      <c r="D149" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D149" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("save","Save");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" t="str">
+      <c r="A150" s="2"/>
+      <c r="B150" t="e">
         <f t="shared" si="6"/>
-        <v>select</v>
-      </c>
-      <c r="C150" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C150" t="e">
         <f t="shared" si="7"/>
-        <v>Select</v>
-      </c>
-      <c r="D150" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D150" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("select","Select");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="str">
+      <c r="A151" s="2"/>
+      <c r="B151" t="e">
         <f t="shared" si="6"/>
-        <v>cancel</v>
-      </c>
-      <c r="C151" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C151" t="e">
         <f t="shared" si="7"/>
-        <v>Cancel</v>
-      </c>
-      <c r="D151" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D151" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("cancel","Cancel");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>43</v>
-      </c>
-      <c r="B152" t="str">
+      <c r="A152" s="2"/>
+      <c r="B152" t="e">
         <f t="shared" si="6"/>
-        <v>fixed</v>
-      </c>
-      <c r="C152" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C152" t="e">
         <f t="shared" si="7"/>
-        <v>Fixed</v>
-      </c>
-      <c r="D152" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D152" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("fixed","Fixed");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" t="str">
+      <c r="A153" s="2"/>
+      <c r="B153" t="e">
         <f t="shared" si="6"/>
-        <v>netSimWork01</v>
-      </c>
-      <c r="C153" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C153" t="e">
         <f t="shared" si="7"/>
-        <v>Net simulator working</v>
-      </c>
-      <c r="D153" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D153" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("netSimWork01","Net simulator working");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>147</v>
-      </c>
-      <c r="B154" t="str">
+      <c r="A154" s="2"/>
+      <c r="B154" t="e">
         <f t="shared" si="6"/>
-        <v>error</v>
-      </c>
-      <c r="C154" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C154" t="e">
         <f t="shared" si="7"/>
-        <v>Error</v>
-      </c>
-      <c r="D154" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D154" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("error","Error");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>148</v>
-      </c>
-      <c r="B155" t="str">
+      <c r="A155" s="2"/>
+      <c r="B155" t="e">
         <f t="shared" si="6"/>
-        <v>critError</v>
-      </c>
-      <c r="C155" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C155" t="e">
         <f t="shared" si="7"/>
-        <v>Critical error</v>
-      </c>
-      <c r="D155" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D155" t="e">
         <f t="shared" si="8"/>
-        <v>defaultEnglish.put("critError","Critical error");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:4">
+      <c r="A156" s="2"/>
       <c r="B156" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3524,6 +2815,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
+      <c r="A157" s="2"/>
       <c r="B157" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3538,6 +2830,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
+      <c r="A158" s="2"/>
       <c r="B158" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3552,6 +2845,7 @@
       </c>
     </row>
     <row r="159" spans="1:4">
+      <c r="A159" s="2"/>
       <c r="B159" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3566,6 +2860,7 @@
       </c>
     </row>
     <row r="160" spans="1:4">
+      <c r="A160" s="2"/>
       <c r="B160" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3579,7 +2874,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2"/>
       <c r="B161" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3593,7 +2889,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2"/>
       <c r="B162" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3607,7 +2904,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2"/>
       <c r="B163" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3621,7 +2919,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2"/>
       <c r="B164" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3635,7 +2934,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2"/>
       <c r="B165" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3649,7 +2949,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2"/>
       <c r="B166" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3663,7 +2964,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2"/>
       <c r="B167" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3677,7 +2979,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="2:4">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2"/>
       <c r="B168" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3691,7 +2994,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="2:4">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2"/>
       <c r="B169" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3705,7 +3009,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="2:4">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2"/>
       <c r="B170" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3719,7 +3024,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2"/>
       <c r="B171" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3733,7 +3039,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2"/>
       <c r="B172" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3747,7 +3054,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2"/>
       <c r="B173" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3761,7 +3069,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2"/>
       <c r="B174" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3775,7 +3084,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2"/>
       <c r="B175" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3789,7 +3099,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2"/>
       <c r="B176" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3803,7 +3114,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2"/>
       <c r="B177" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3817,7 +3129,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2"/>
       <c r="B178" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3831,7 +3144,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="2:4">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2"/>
       <c r="B179" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3845,7 +3159,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2"/>
       <c r="B180" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3859,7 +3174,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2"/>
       <c r="B181" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3873,7 +3189,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2"/>
       <c r="B182" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3887,7 +3204,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="2:4">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2"/>
       <c r="B183" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3901,7 +3219,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2"/>
       <c r="B184" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3915,7 +3234,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2"/>
       <c r="B185" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3929,7 +3249,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="2:4">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2"/>
       <c r="B186" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3943,7 +3264,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2"/>
       <c r="B187" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3957,7 +3279,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="2:4">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2"/>
       <c r="B188" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3971,7 +3294,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="2:4">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2"/>
       <c r="B189" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3985,7 +3309,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="2:4">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2"/>
       <c r="B190" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3999,7 +3324,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="2:4">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2"/>
       <c r="B191" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4013,7 +3339,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="2:4">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2"/>
       <c r="B192" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4027,7 +3354,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2"/>
       <c r="B193" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4041,7 +3369,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2"/>
       <c r="B194" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -4055,7 +3384,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2"/>
       <c r="B195" t="e">
         <f t="shared" ref="B195:B258" si="9">_xlfn.TEXTBEFORE(A195,",")</f>
         <v>#N/A</v>
@@ -4069,7 +3399,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2"/>
       <c r="B196" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4083,7 +3414,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2"/>
       <c r="B197" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4097,7 +3429,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2"/>
       <c r="B198" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4111,7 +3444,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="2:4">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2"/>
       <c r="B199" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4125,7 +3459,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="2:4">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2"/>
       <c r="B200" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4139,7 +3474,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:4">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2"/>
       <c r="B201" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4153,7 +3489,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="2:4">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2"/>
       <c r="B202" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4167,7 +3504,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="2:4">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2"/>
       <c r="B203" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4181,7 +3519,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2"/>
       <c r="B204" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4195,7 +3534,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2"/>
       <c r="B205" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4209,7 +3549,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2"/>
       <c r="B206" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4223,7 +3564,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2"/>
       <c r="B207" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4237,7 +3579,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2"/>
       <c r="B208" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4251,7 +3594,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2"/>
       <c r="B209" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4265,7 +3609,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2"/>
       <c r="B210" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4279,7 +3624,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2"/>
       <c r="B211" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4293,7 +3639,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2"/>
       <c r="B212" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4307,7 +3654,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2"/>
       <c r="B213" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4321,7 +3669,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2"/>
       <c r="B214" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4335,7 +3684,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2"/>
       <c r="B215" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4349,7 +3699,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2"/>
       <c r="B216" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4363,7 +3714,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2"/>
       <c r="B217" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4377,7 +3729,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2"/>
       <c r="B218" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4391,7 +3744,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2"/>
       <c r="B219" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4405,7 +3759,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2"/>
       <c r="B220" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4419,7 +3774,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2"/>
       <c r="B221" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4433,7 +3789,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2"/>
       <c r="B222" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4447,7 +3804,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2"/>
       <c r="B223" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4461,7 +3819,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2"/>
       <c r="B224" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4475,7 +3834,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="2:4">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2"/>
       <c r="B225" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4489,7 +3849,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="2:4">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2"/>
       <c r="B226" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4503,7 +3864,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="2:4">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2"/>
       <c r="B227" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4517,7 +3879,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2"/>
       <c r="B228" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4531,7 +3894,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2"/>
       <c r="B229" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4545,7 +3909,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2"/>
       <c r="B230" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4559,7 +3924,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2"/>
       <c r="B231" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4573,7 +3939,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2"/>
       <c r="B232" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4587,7 +3954,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2"/>
       <c r="B233" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4601,7 +3969,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2"/>
       <c r="B234" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4615,7 +3984,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2"/>
       <c r="B235" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4629,7 +3999,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2"/>
       <c r="B236" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4643,7 +4014,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2"/>
       <c r="B237" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4657,7 +4029,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="2:4">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2"/>
       <c r="B238" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4671,7 +4044,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="2:4">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2"/>
       <c r="B239" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4685,7 +4059,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="2:4">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2"/>
       <c r="B240" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4699,7 +4074,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="2:4">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2"/>
       <c r="B241" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4713,7 +4089,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="2:4">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2"/>
       <c r="B242" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4727,7 +4104,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="2:4">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2"/>
       <c r="B243" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4741,7 +4119,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2"/>
       <c r="B244" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4755,7 +4134,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2"/>
       <c r="B245" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4769,7 +4149,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="2:4">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2"/>
       <c r="B246" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4783,7 +4164,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2"/>
       <c r="B247" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4797,7 +4179,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="2:4">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2"/>
       <c r="B248" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4811,7 +4194,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="2:4">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2"/>
       <c r="B249" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4825,7 +4209,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="2:4">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2"/>
       <c r="B250" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4839,7 +4224,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2"/>
       <c r="B251" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4853,7 +4239,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="2:4">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2"/>
       <c r="B252" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4867,7 +4254,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="2:4">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2"/>
       <c r="B253" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4881,7 +4269,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="2:4">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2"/>
       <c r="B254" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4895,7 +4284,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="2:4">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2"/>
       <c r="B255" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4909,7 +4299,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="2:4">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2"/>
       <c r="B256" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4923,7 +4314,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="2:4">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2"/>
       <c r="B257" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4937,7 +4329,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="2:4">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2"/>
       <c r="B258" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4951,7 +4344,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="2:4">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2"/>
       <c r="B259" t="e">
         <f t="shared" ref="B259:B322" si="12">_xlfn.TEXTBEFORE(A259,",")</f>
         <v>#N/A</v>
@@ -4965,7 +4359,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2"/>
       <c r="B260" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4979,7 +4374,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2"/>
       <c r="B261" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4993,7 +4389,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="2:4">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2"/>
       <c r="B262" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5007,7 +4404,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="2:4">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2"/>
       <c r="B263" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5021,7 +4419,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="2:4">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2"/>
       <c r="B264" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5035,7 +4434,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2"/>
       <c r="B265" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5049,7 +4449,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="2:4">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2"/>
       <c r="B266" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5063,7 +4464,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2"/>
       <c r="B267" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5077,7 +4479,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="2:4">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2"/>
       <c r="B268" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5091,7 +4494,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="2:4">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2"/>
       <c r="B269" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5105,7 +4509,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="2:4">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2"/>
       <c r="B270" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5119,7 +4524,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="2:4">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2"/>
       <c r="B271" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5133,7 +4539,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="2:4">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2"/>
       <c r="B272" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5147,7 +4554,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="2:4">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2"/>
       <c r="B273" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5161,7 +4569,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="2:4">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2"/>
       <c r="B274" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5175,7 +4584,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="2:4">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2"/>
       <c r="B275" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5189,7 +4599,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="2:4">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2"/>
       <c r="B276" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5203,7 +4614,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="2:4">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2"/>
       <c r="B277" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5217,7 +4629,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="2:4">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2"/>
       <c r="B278" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5231,7 +4644,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="2:4">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2"/>
       <c r="B279" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5245,7 +4659,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="2:4">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2"/>
       <c r="B280" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5259,7 +4674,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="2:4">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2"/>
       <c r="B281" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5273,7 +4689,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="2:4">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2"/>
       <c r="B282" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5287,7 +4704,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="2:4">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2"/>
       <c r="B283" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5301,7 +4719,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="2:4">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2"/>
       <c r="B284" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5315,7 +4734,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="2:4">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2"/>
       <c r="B285" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5329,7 +4749,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="2:4">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2"/>
       <c r="B286" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5343,7 +4764,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="2:4">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2"/>
       <c r="B287" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5357,7 +4779,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="2:4">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2"/>
       <c r="B288" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5371,7 +4794,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="2:4">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2"/>
       <c r="B289" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5385,7 +4809,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="2:4">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2"/>
       <c r="B290" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5399,7 +4824,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="2:4">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2"/>
       <c r="B291" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5413,7 +4839,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="2:4">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2"/>
       <c r="B292" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5427,7 +4854,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="2:4">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2"/>
       <c r="B293" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5441,7 +4869,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="2:4">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2"/>
       <c r="B294" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5455,7 +4884,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="2:4">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2"/>
       <c r="B295" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5469,7 +4899,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="2:4">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2"/>
       <c r="B296" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5483,7 +4914,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="2:4">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2"/>
       <c r="B297" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5497,7 +4929,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="2:4">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2"/>
       <c r="B298" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5511,7 +4944,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="2:4">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2"/>
       <c r="B299" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5525,7 +4959,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="2:4">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2"/>
       <c r="B300" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5539,7 +4974,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="2:4">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2"/>
       <c r="B301" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5553,7 +4989,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="2:4">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2"/>
       <c r="B302" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5567,7 +5004,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="2:4">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2"/>
       <c r="B303" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5581,7 +5019,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="2:4">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2"/>
       <c r="B304" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5595,7 +5034,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2"/>
       <c r="B305" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5609,7 +5049,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2"/>
       <c r="B306" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5623,7 +5064,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="2:4">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2"/>
       <c r="B307" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5637,7 +5079,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2"/>
       <c r="B308" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5651,7 +5094,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2"/>
       <c r="B309" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5665,7 +5109,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2"/>
       <c r="B310" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5679,7 +5124,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2"/>
       <c r="B311" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5693,7 +5139,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2"/>
       <c r="B312" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5707,7 +5154,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2"/>
       <c r="B313" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5721,7 +5169,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="2:4">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2"/>
       <c r="B314" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5735,7 +5184,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="2:4">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2"/>
       <c r="B315" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5749,7 +5199,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="2:4">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2"/>
       <c r="B316" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5763,7 +5214,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2"/>
       <c r="B317" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5777,7 +5229,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2"/>
       <c r="B318" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5791,7 +5244,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2"/>
       <c r="B319" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5805,7 +5259,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="2:4">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2"/>
       <c r="B320" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5819,7 +5274,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="2:4">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2"/>
       <c r="B321" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5833,7 +5289,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="2:4">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2"/>
       <c r="B322" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5847,7 +5304,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="2:4">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2"/>
       <c r="B323" t="e">
         <f t="shared" ref="B323:B386" si="15">_xlfn.TEXTBEFORE(A323,",")</f>
         <v>#N/A</v>
@@ -5861,7 +5319,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="2:4">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2"/>
       <c r="B324" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5875,7 +5334,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="2:4">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2"/>
       <c r="B325" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5889,7 +5349,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="2:4">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2"/>
       <c r="B326" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5903,7 +5364,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="2:4">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2"/>
       <c r="B327" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5917,7 +5379,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="2:4">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2"/>
       <c r="B328" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5931,7 +5394,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="2:4">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2"/>
       <c r="B329" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5945,7 +5409,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="2:4">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2"/>
       <c r="B330" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5959,7 +5424,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="2:4">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2"/>
       <c r="B331" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5973,7 +5439,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="2:4">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2"/>
       <c r="B332" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5987,7 +5454,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="2:4">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2"/>
       <c r="B333" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6001,7 +5469,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="2:4">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2"/>
       <c r="B334" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6015,7 +5484,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="2:4">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2"/>
       <c r="B335" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6029,7 +5499,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="2:4">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2"/>
       <c r="B336" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6043,7 +5514,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2"/>
       <c r="B337" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6057,7 +5529,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2"/>
       <c r="B338" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6071,7 +5544,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2"/>
       <c r="B339" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6085,7 +5559,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2"/>
       <c r="B340" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6099,7 +5574,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2"/>
       <c r="B341" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6113,7 +5589,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="2:4">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2"/>
       <c r="B342" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6127,7 +5604,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="2:4">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2"/>
       <c r="B343" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6141,7 +5619,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="2:4">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2"/>
       <c r="B344" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6155,7 +5634,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2"/>
       <c r="B345" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6169,7 +5649,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2"/>
       <c r="B346" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6183,7 +5664,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2"/>
       <c r="B347" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6197,7 +5679,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="2:4">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2"/>
       <c r="B348" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6211,7 +5694,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2"/>
       <c r="B349" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6225,7 +5709,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2"/>
       <c r="B350" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6239,7 +5724,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="2:4">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2"/>
       <c r="B351" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6253,7 +5739,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="2:4">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2"/>
       <c r="B352" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6267,7 +5754,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="2:4">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2"/>
       <c r="B353" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6281,7 +5769,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="2:4">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2"/>
       <c r="B354" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6295,7 +5784,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="2:4">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2"/>
       <c r="B355" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6309,7 +5799,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="2:4">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2"/>
       <c r="B356" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6323,7 +5814,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="2:4">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2"/>
       <c r="B357" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6337,7 +5829,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="2:4">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2"/>
       <c r="B358" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6351,7 +5844,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="2:4">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2"/>
       <c r="B359" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6365,7 +5859,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="2:4">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2"/>
       <c r="B360" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6379,7 +5874,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="2:4">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2"/>
       <c r="B361" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6393,7 +5889,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="2:4">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2"/>
       <c r="B362" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6407,7 +5904,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="2:4">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2"/>
       <c r="B363" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6421,7 +5919,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="2:4">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2"/>
       <c r="B364" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6435,7 +5934,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="2:4">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2"/>
       <c r="B365" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6449,7 +5949,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="2:4">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2"/>
       <c r="B366" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6463,7 +5964,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="2:4">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2"/>
       <c r="B367" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6477,7 +5979,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="2:4">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2"/>
       <c r="B368" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6491,7 +5994,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="2:4">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2"/>
       <c r="B369" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6505,7 +6009,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="2:4">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2"/>
       <c r="B370" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6519,7 +6024,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="2:4">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2"/>
       <c r="B371" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6533,7 +6039,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="2:4">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2"/>
       <c r="B372" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6547,7 +6054,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="2:4">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2"/>
       <c r="B373" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6561,7 +6069,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="2:4">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2"/>
       <c r="B374" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6575,7 +6084,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="2:4">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2"/>
       <c r="B375" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6589,7 +6099,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="2:4">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2"/>
       <c r="B376" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6603,7 +6114,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="2:4">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2"/>
       <c r="B377" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6617,7 +6129,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2"/>
       <c r="B378" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6631,7 +6144,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="2:4">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2"/>
       <c r="B379" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6645,7 +6159,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="2:4">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2"/>
       <c r="B380" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6659,7 +6174,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="2:4">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2"/>
       <c r="B381" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6673,7 +6189,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="2:4">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2"/>
       <c r="B382" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6687,7 +6204,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="2:4">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2"/>
       <c r="B383" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6701,7 +6219,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="2:4">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2"/>
       <c r="B384" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6715,7 +6234,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="2:4">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2"/>
       <c r="B385" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6729,7 +6249,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="2:4">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2"/>
       <c r="B386" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6743,7 +6264,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="2:4">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2"/>
       <c r="B387" t="e">
         <f t="shared" ref="B387:B450" si="18">_xlfn.TEXTBEFORE(A387,",")</f>
         <v>#N/A</v>
@@ -6757,7 +6279,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="2:4">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2"/>
       <c r="B388" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6771,7 +6294,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="2:4">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2"/>
       <c r="B389" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6785,7 +6309,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="2:4">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2"/>
       <c r="B390" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6799,7 +6324,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="2:4">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2"/>
       <c r="B391" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6813,7 +6339,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="2:4">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2"/>
       <c r="B392" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6827,7 +6354,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="2:4">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2"/>
       <c r="B393" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6841,7 +6369,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="2:4">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2"/>
       <c r="B394" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6855,7 +6384,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="2:4">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2"/>
       <c r="B395" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6869,7 +6399,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="2:4">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2"/>
       <c r="B396" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6883,7 +6414,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="2:4">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2"/>
       <c r="B397" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6897,7 +6429,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="2:4">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2"/>
       <c r="B398" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6911,7 +6444,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="2:4">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2"/>
       <c r="B399" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6925,7 +6459,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="2:4">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2"/>
       <c r="B400" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6939,7 +6474,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="2:4">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2"/>
       <c r="B401" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6953,7 +6489,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="2:4">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2"/>
       <c r="B402" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6967,7 +6504,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="2:4">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2"/>
       <c r="B403" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6981,7 +6519,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="2:4">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2"/>
       <c r="B404" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6995,7 +6534,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="2:4">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2"/>
       <c r="B405" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7009,7 +6549,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="2:4">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2"/>
       <c r="B406" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7023,7 +6564,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="2:4">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2"/>
       <c r="B407" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7037,7 +6579,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="2:4">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2"/>
       <c r="B408" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7051,7 +6594,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="2:4">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2"/>
       <c r="B409" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7065,7 +6609,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="2:4">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2"/>
       <c r="B410" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7079,7 +6624,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="411" spans="2:4">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2"/>
       <c r="B411" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7093,7 +6639,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="2:4">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2"/>
       <c r="B412" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7107,7 +6654,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="2:4">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2"/>
       <c r="B413" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7121,7 +6669,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="2:4">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2"/>
       <c r="B414" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7135,7 +6684,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="2:4">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2"/>
       <c r="B415" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7149,7 +6699,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="416" spans="2:4">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2"/>
       <c r="B416" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7163,7 +6714,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="417" spans="2:4">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2"/>
       <c r="B417" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7177,7 +6729,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="2:4">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2"/>
       <c r="B418" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7191,7 +6744,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="419" spans="2:4">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2"/>
       <c r="B419" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7205,7 +6759,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="2:4">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2"/>
       <c r="B420" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7219,7 +6774,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="421" spans="2:4">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2"/>
       <c r="B421" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7233,7 +6789,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="422" spans="2:4">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2"/>
       <c r="B422" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7247,7 +6804,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="2:4">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2"/>
       <c r="B423" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7261,7 +6819,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="424" spans="2:4">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2"/>
       <c r="B424" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7275,7 +6834,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="425" spans="2:4">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2"/>
       <c r="B425" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7289,7 +6849,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="426" spans="2:4">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2"/>
       <c r="B426" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7303,7 +6864,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="2:4">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2"/>
       <c r="B427" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7317,7 +6879,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="428" spans="2:4">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2"/>
       <c r="B428" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7331,7 +6894,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="429" spans="2:4">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2"/>
       <c r="B429" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7345,7 +6909,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="430" spans="2:4">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2"/>
       <c r="B430" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7359,7 +6924,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="2:4">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2"/>
       <c r="B431" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7373,7 +6939,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="2:4">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2"/>
       <c r="B432" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7387,7 +6954,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="2:4">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2"/>
       <c r="B433" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7401,7 +6969,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="2:4">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2"/>
       <c r="B434" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7415,7 +6984,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="435" spans="2:4">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2"/>
       <c r="B435" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7429,7 +6999,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="436" spans="2:4">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2"/>
       <c r="B436" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7443,7 +7014,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="437" spans="2:4">
+    <row r="437" spans="1:4">
+      <c r="A437" s="1"/>
       <c r="B437" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7457,7 +7029,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="438" spans="2:4">
+    <row r="438" spans="1:4">
+      <c r="A438" s="1"/>
       <c r="B438" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7471,7 +7044,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439" spans="2:4">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2"/>
       <c r="B439" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7485,7 +7059,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="2:4">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2"/>
       <c r="B440" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7499,7 +7074,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="2:4">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2"/>
       <c r="B441" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7513,7 +7089,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="442" spans="2:4">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2"/>
       <c r="B442" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7527,7 +7104,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="2:4">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2"/>
       <c r="B443" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7541,7 +7119,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="2:4">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2"/>
       <c r="B444" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7555,7 +7134,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="2:4">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2"/>
       <c r="B445" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7569,7 +7149,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="2:4">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2"/>
       <c r="B446" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7583,7 +7164,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="2:4">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2"/>
       <c r="B447" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7597,7 +7179,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="2:4">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2"/>
       <c r="B448" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7611,7 +7194,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="2:4">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2"/>
       <c r="B449" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7625,7 +7209,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2"/>
       <c r="B450" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7639,7 +7224,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2"/>
       <c r="B451" t="e">
         <f t="shared" ref="B451:B514" si="21">_xlfn.TEXTBEFORE(A451,",")</f>
         <v>#N/A</v>
@@ -7653,7 +7239,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="2:4">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2"/>
       <c r="B452" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7667,7 +7254,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2"/>
       <c r="B453" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7681,7 +7269,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="454" spans="2:4">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2"/>
       <c r="B454" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7695,7 +7284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="2:4">
+    <row r="455" spans="1:4">
       <c r="B455" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7709,7 +7298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="2:4">
+    <row r="456" spans="1:4">
       <c r="B456" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7723,7 +7312,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="2:4">
+    <row r="457" spans="1:4">
       <c r="B457" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7737,7 +7326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
+    <row r="458" spans="1:4">
       <c r="B458" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7751,7 +7340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="2:4">
+    <row r="459" spans="1:4">
       <c r="B459" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7765,7 +7354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="1:4">
       <c r="B460" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7779,7 +7368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
+    <row r="461" spans="1:4">
       <c r="B461" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7793,7 +7382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
+    <row r="462" spans="1:4">
       <c r="B462" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7807,7 +7396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
+    <row r="463" spans="1:4">
       <c r="B463" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7821,7 +7410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="464" spans="2:4">
+    <row r="464" spans="1:4">
       <c r="B464" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>

--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7D4D1C-F3D2-4C8D-A8BE-AF14B11D8A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189A5CE-F1E3-4185-B97A-A0B1F0B28DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>GUIM_closingQuestion002, Are you sure you want to close the program?</t>
+  </si>
+  <si>
+    <t>GRDF_entry004, \nComparison process ended. \n</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A2:D5254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,18 +493,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" t="e">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="str">
         <f>_xlfn.TEXTBEFORE(A2,",")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
+        <v>GRDF_entry004</v>
+      </c>
+      <c r="C2" t="str">
         <f>_xlfn.TEXTAFTER(A2,", ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="e">
+        <v>\nComparison process ended. \n</v>
+      </c>
+      <c r="D2" t="str">
         <f>_xlfn.CONCAT("defaultEnglish.put(","""",B2,""",""",C2,""");")</f>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("GRDF_entry004","\nComparison process ended. \n");</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -715,7 +720,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -790,7 +795,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -880,7 +885,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1435,7 +1440,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
       <c r="B65" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1480,7 +1485,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
       <c r="B68" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>

--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189A5CE-F1E3-4185-B97A-A0B1F0B28DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F6E1F-4F31-42A7-8BF9-7BE13DC85317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>GUIM_closingQuestion002, Are you sure you want to close the program?</t>
-  </si>
-  <si>
-    <t>GRDF_entry004, \nComparison process ended. \n</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <dimension ref="A2:D5254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,20 +490,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="2"/>
+      <c r="B2" t="e">
         <f>_xlfn.TEXTBEFORE(A2,",")</f>
-        <v>GRDF_entry004</v>
-      </c>
-      <c r="C2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
         <f>_xlfn.TEXTAFTER(A2,", ")</f>
-        <v>\nComparison process ended. \n</v>
-      </c>
-      <c r="D2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
         <f>_xlfn.CONCAT("defaultEnglish.put(","""",B2,""",""",C2,""");")</f>
-        <v>defaultEnglish.put("GRDF_entry004","\nComparison process ended. \n");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -645,7 +640,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -720,7 +715,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -795,7 +790,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -885,7 +880,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1200,7 +1195,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="B49" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1275,7 +1270,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
       <c r="B54" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1440,7 +1435,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
       <c r="B65" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1500,7 +1495,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
       <c r="B69" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1605,7 +1600,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
       <c r="B76" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1740,7 +1735,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
       <c r="B85" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2355,7 +2350,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
       <c r="B126" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2430,7 +2425,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
       <c r="B131" t="e">
         <f t="shared" ref="B131:B194" si="6">_xlfn.TEXTBEFORE(A131,",")</f>
         <v>#N/A</v>
@@ -2505,7 +2500,7 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
       <c r="B136" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2700,7 +2695,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
       <c r="B149" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -2880,7 +2875,7 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
       <c r="B161" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3045,7 +3040,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
       <c r="B172" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
@@ -3510,7 +3505,7 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
       <c r="B203" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3555,7 +3550,7 @@
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
       <c r="B206" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3720,7 +3715,7 @@
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1"/>
       <c r="B217" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3780,7 +3775,7 @@
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
       <c r="B221" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3840,7 +3835,7 @@
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
       <c r="B225" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3900,7 +3895,7 @@
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
       <c r="B229" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -3945,7 +3940,7 @@
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1"/>
       <c r="B232" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4170,7 +4165,7 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
       <c r="B247" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4245,7 +4240,7 @@
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1"/>
       <c r="B252" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4320,7 +4315,7 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="2"/>
+      <c r="A257" s="1"/>
       <c r="B257" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
@@ -4380,7 +4375,7 @@
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="2"/>
+      <c r="A261" s="1"/>
       <c r="B261" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4440,7 +4435,7 @@
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="2"/>
+      <c r="A265" s="1"/>
       <c r="B265" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4485,7 +4480,7 @@
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="2"/>
+      <c r="A268" s="1"/>
       <c r="B268" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4620,7 +4615,7 @@
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="2"/>
+      <c r="A277" s="1"/>
       <c r="B277" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4740,7 +4735,7 @@
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="2"/>
+      <c r="A285" s="1"/>
       <c r="B285" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4815,7 +4810,7 @@
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="2"/>
+      <c r="A290" s="1"/>
       <c r="B290" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -4890,7 +4885,7 @@
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="2"/>
+      <c r="A295" s="1"/>
       <c r="B295" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5250,7 +5245,7 @@
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1"/>
       <c r="B319" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
@@ -5520,7 +5515,7 @@
       </c>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1"/>
       <c r="B337" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6345,7 +6340,7 @@
       </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="2"/>
+      <c r="A392" s="1"/>
       <c r="B392" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6405,7 +6400,7 @@
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="2"/>
+      <c r="A396" s="1"/>
       <c r="B396" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6465,7 +6460,7 @@
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="2"/>
+      <c r="A400" s="1"/>
       <c r="B400" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6615,7 +6610,7 @@
       </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="2"/>
+      <c r="A410" s="1"/>
       <c r="B410" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6675,7 +6670,7 @@
       </c>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="2"/>
+      <c r="A414" s="1"/>
       <c r="B414" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6825,7 +6820,7 @@
       </c>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="2"/>
+      <c r="A424" s="1"/>
       <c r="B424" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6885,7 +6880,7 @@
       </c>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="2"/>
+      <c r="A428" s="1"/>
       <c r="B428" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -6975,7 +6970,7 @@
       </c>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="2"/>
+      <c r="A434" s="1"/>
       <c r="B434" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7020,7 +7015,7 @@
       </c>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="1"/>
+      <c r="A437" s="2"/>
       <c r="B437" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7035,7 +7030,7 @@
       </c>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="1"/>
+      <c r="A438" s="2"/>
       <c r="B438" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
@@ -7290,6 +7285,7 @@
       </c>
     </row>
     <row r="455" spans="1:4">
+      <c r="A455" s="2"/>
       <c r="B455" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7304,6 +7300,7 @@
       </c>
     </row>
     <row r="456" spans="1:4">
+      <c r="A456" s="2"/>
       <c r="B456" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7318,6 +7315,7 @@
       </c>
     </row>
     <row r="457" spans="1:4">
+      <c r="A457" s="2"/>
       <c r="B457" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7332,6 +7330,7 @@
       </c>
     </row>
     <row r="458" spans="1:4">
+      <c r="A458" s="1"/>
       <c r="B458" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7346,6 +7345,7 @@
       </c>
     </row>
     <row r="459" spans="1:4">
+      <c r="A459" s="2"/>
       <c r="B459" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7360,6 +7360,7 @@
       </c>
     </row>
     <row r="460" spans="1:4">
+      <c r="A460" s="2"/>
       <c r="B460" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7374,6 +7375,7 @@
       </c>
     </row>
     <row r="461" spans="1:4">
+      <c r="A461" s="2"/>
       <c r="B461" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7388,6 +7390,7 @@
       </c>
     </row>
     <row r="462" spans="1:4">
+      <c r="A462" s="1"/>
       <c r="B462" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7402,6 +7405,7 @@
       </c>
     </row>
     <row r="463" spans="1:4">
+      <c r="A463" s="2"/>
       <c r="B463" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7416,6 +7420,7 @@
       </c>
     </row>
     <row r="464" spans="1:4">
+      <c r="A464" s="2"/>
       <c r="B464" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7429,7 +7434,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="465" spans="2:4">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2"/>
       <c r="B465" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7443,7 +7449,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="2:4">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2"/>
       <c r="B466" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7457,7 +7464,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="467" spans="2:4">
+    <row r="467" spans="1:4">
+      <c r="A467" s="1"/>
       <c r="B467" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7471,7 +7479,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="2:4">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2"/>
       <c r="B468" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7485,7 +7494,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="2:4">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2"/>
       <c r="B469" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7499,7 +7509,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="470" spans="2:4">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2"/>
       <c r="B470" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7513,7 +7524,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="2:4">
+    <row r="471" spans="1:4">
+      <c r="A471" s="1"/>
       <c r="B471" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7527,7 +7539,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="2:4">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2"/>
       <c r="B472" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7541,7 +7554,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="2:4">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2"/>
       <c r="B473" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7555,7 +7569,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="2:4">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2"/>
       <c r="B474" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7569,7 +7584,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="2:4">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2"/>
       <c r="B475" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7583,7 +7599,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="2:4">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2"/>
       <c r="B476" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7597,7 +7614,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="2:4">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2"/>
       <c r="B477" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7611,7 +7629,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="2:4">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2"/>
       <c r="B478" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7625,7 +7644,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="2:4">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2"/>
       <c r="B479" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7639,7 +7659,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="2:4">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2"/>
       <c r="B480" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7653,7 +7674,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="2:4">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2"/>
       <c r="B481" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7667,7 +7689,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="2:4">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2"/>
       <c r="B482" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7681,7 +7704,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="2:4">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2"/>
       <c r="B483" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7695,7 +7719,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="2:4">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2"/>
       <c r="B484" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7709,7 +7734,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="485" spans="2:4">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2"/>
       <c r="B485" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7723,7 +7749,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="2:4">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2"/>
       <c r="B486" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7737,7 +7764,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="2:4">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2"/>
       <c r="B487" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7751,7 +7779,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="2:4">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2"/>
       <c r="B488" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7765,7 +7794,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="2:4">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2"/>
       <c r="B489" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7779,7 +7809,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="2:4">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2"/>
       <c r="B490" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7793,7 +7824,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="2:4">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2"/>
       <c r="B491" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7807,7 +7839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="2:4">
+    <row r="492" spans="1:4">
       <c r="B492" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7821,7 +7853,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="2:4">
+    <row r="493" spans="1:4">
       <c r="B493" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7835,7 +7867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="2:4">
+    <row r="494" spans="1:4">
       <c r="B494" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7849,7 +7881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="2:4">
+    <row r="495" spans="1:4">
       <c r="B495" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
@@ -7863,7 +7895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="2:4">
+    <row r="496" spans="1:4">
       <c r="B496" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>

--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F6E1F-4F31-42A7-8BF9-7BE13DC85317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D39A6-3F0B-46D5-BCFD-D368CA55F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>GUIM_closingQuestion002, Are you sure you want to close the program?</t>
+  </si>
+  <si>
+    <t>HDWT_entry306QuickSim, &lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HDWT_entry307QuickSim, &lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HDWT_entry308QuickSim, State manager</t>
+  </si>
+  <si>
+    <t>HDWT_entry309QuickSim, &lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HDWT_entry310QuickSim, &lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HDWT_entry311QuickSim, Tokens delay:</t>
   </si>
 </sst>
 </file>
@@ -479,7 +497,7 @@
   <dimension ref="A2:D5254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,93 +508,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" t="e">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="str">
         <f>_xlfn.TEXTBEFORE(A2,",")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
+        <v>HDWT_entry306QuickSim</v>
+      </c>
+      <c r="C2" t="str">
         <f>_xlfn.TEXTAFTER(A2,", ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="e">
+        <v>&lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</v>
+      </c>
+      <c r="D2" t="str">
         <f>_xlfn.CONCAT("defaultEnglish.put(","""",B2,""",""",C2,""");")</f>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry306QuickSim","&lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;");</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" t="e">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">_xlfn.TEXTBEFORE(A3,",")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C3" t="e">
+        <v>HDWT_entry307QuickSim</v>
+      </c>
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="1">_xlfn.TEXTAFTER(A3,", ")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
+        <v>&lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</v>
+      </c>
+      <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="2">_xlfn.CONCAT("defaultEnglish.put(","""",B3,""",""",C3,""");")</f>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry307QuickSim","&lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;");</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" t="e">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" t="e">
+        <v>HDWT_entry308QuickSim</v>
+      </c>
+      <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="e">
+        <v>State manager</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry308QuickSim","State manager");</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" t="e">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
+        <v>HDWT_entry309QuickSim</v>
+      </c>
+      <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
+        <v>&lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry309QuickSim","&lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;");</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" t="e">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" t="e">
+        <v>HDWT_entry310QuickSim</v>
+      </c>
+      <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="e">
+        <v>&lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry310QuickSim","&lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;");</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" t="e">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" t="e">
+        <v>HDWT_entry311QuickSim</v>
+      </c>
+      <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" t="e">
+        <v>Tokens delay:</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>defaultEnglish.put("HDWT_entry311QuickSim","Tokens delay:");</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -715,7 +745,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -790,7 +820,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -865,7 +895,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -940,7 +970,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -1000,7 +1030,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
       <c r="B36" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>

--- a/LangHelper.xlsx
+++ b/LangHelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rince\IdeaProjects\HolmesPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D39A6-3F0B-46D5-BCFD-D368CA55F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A1C8E-FFF6-489B-955D-DDC89E9CA995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15E65810-D959-4F2C-A764-5C4217514F96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>//generalPurposeTags:</t>
   </si>
@@ -91,24 +91,6 @@
   </si>
   <si>
     <t>GUIM_closingQuestion002, Are you sure you want to close the program?</t>
-  </si>
-  <si>
-    <t>HDWT_entry306QuickSim, &lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HDWT_entry307QuickSim, &lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HDWT_entry308QuickSim, State manager</t>
-  </si>
-  <si>
-    <t>HDWT_entry309QuickSim, &lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HDWT_entry310QuickSim, &lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HDWT_entry311QuickSim, Tokens delay:</t>
   </si>
 </sst>
 </file>
@@ -497,7 +479,7 @@
   <dimension ref="A2:D5254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C2:C7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,105 +490,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="str">
+      <c r="A2" s="2"/>
+      <c r="B2" t="e">
         <f>_xlfn.TEXTBEFORE(A2,",")</f>
-        <v>HDWT_entry306QuickSim</v>
-      </c>
-      <c r="C2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
         <f>_xlfn.TEXTAFTER(A2,", ")</f>
-        <v>&lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</v>
-      </c>
-      <c r="D2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
         <f>_xlfn.CONCAT("defaultEnglish.put(","""",B2,""",""",C2,""");")</f>
-        <v>defaultEnglish.put("HDWT_entry306QuickSim","&lt;html&gt;&lt;center&gt;Store&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="A3" s="2"/>
+      <c r="B3" t="e">
         <f t="shared" ref="B3:B66" si="0">_xlfn.TEXTBEFORE(A3,",")</f>
-        <v>HDWT_entry307QuickSim</v>
-      </c>
-      <c r="C3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
         <f t="shared" ref="C3:C66" si="1">_xlfn.TEXTAFTER(A3,", ")</f>
-        <v>&lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;</v>
-      </c>
-      <c r="D3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="2">_xlfn.CONCAT("defaultEnglish.put(","""",B3,""",""",C3,""");")</f>
-        <v>defaultEnglish.put("HDWT_entry307QuickSim","&lt;html&gt;&lt;center&gt;Restore&lt;br&gt;colors&lt;/center&gt;&lt;/html&gt;");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="A4" s="2"/>
+      <c r="B4" t="e">
         <f t="shared" si="0"/>
-        <v>HDWT_entry308QuickSim</v>
-      </c>
-      <c r="C4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="e">
         <f t="shared" si="1"/>
-        <v>State manager</v>
-      </c>
-      <c r="D4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("HDWT_entry308QuickSim","State manager");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" t="e">
         <f t="shared" si="0"/>
-        <v>HDWT_entry309QuickSim</v>
-      </c>
-      <c r="C5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
         <f t="shared" si="1"/>
-        <v>&lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</v>
-      </c>
-      <c r="D5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("HDWT_entry309QuickSim","&lt;html&gt;&lt;center&gt;Reset&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" t="e">
         <f t="shared" si="0"/>
-        <v>HDWT_entry310QuickSim</v>
-      </c>
-      <c r="C6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
         <f t="shared" si="1"/>
-        <v>&lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;</v>
-      </c>
-      <c r="D6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("HDWT_entry310QuickSim","&lt;html&gt;&lt;center&gt;Store&lt;br&gt;p-state&lt;/center&gt;&lt;/html&gt;");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="A7" s="2"/>
+      <c r="B7" t="e">
         <f t="shared" si="0"/>
-        <v>HDWT_entry311QuickSim</v>
-      </c>
-      <c r="C7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
         <f t="shared" si="1"/>
-        <v>Tokens delay:</v>
-      </c>
-      <c r="D7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
         <f t="shared" si="2"/>
-        <v>defaultEnglish.put("HDWT_entry311QuickSim","Tokens delay:");</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:4">
